--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_13_20.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_13_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-290944.7425581585</v>
+        <v>-291756.9793636961</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2909833.600547336</v>
+        <v>2909833.600547333</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736555</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>8.816525072005941</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,67 +1212,67 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>10.00967878293136</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>242.1867670576586</v>
+        <v>301.5465712312742</v>
       </c>
       <c r="C11" t="n">
         <v>289.557888188956</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>193.405386579068</v>
       </c>
       <c r="E11" t="n">
-        <v>302.2813298033896</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>321.4531458913667</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>322.8491597882406</v>
+        <v>322.8491597882405</v>
       </c>
       <c r="H11" t="n">
         <v>235.4343762339799</v>
       </c>
       <c r="I11" t="n">
-        <v>61.8200090555741</v>
+        <v>61.82000905557408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.55747718688174</v>
+        <v>84.55747718688173</v>
       </c>
       <c r="T11" t="n">
         <v>131.2069945273324</v>
       </c>
       <c r="U11" t="n">
-        <v>163.7369697115373</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>245.0529484714534</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>289.6533061821569</v>
       </c>
       <c r="Y11" t="n">
-        <v>301.0499039783557</v>
+        <v>301.0499039783556</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>96.16225684418836</v>
       </c>
       <c r="I12" t="n">
-        <v>57.80139480404328</v>
+        <v>57.8013948040433</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.33892434428587</v>
+        <v>41.33892434428588</v>
       </c>
       <c r="S12" t="n">
         <v>145.9321186766747</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.16328210597135</v>
+        <v>93.16328210597132</v>
       </c>
       <c r="C13" t="n">
-        <v>79.36327695137183</v>
+        <v>79.3632769513718</v>
       </c>
       <c r="D13" t="n">
-        <v>62.98464134895022</v>
+        <v>62.98464134895019</v>
       </c>
       <c r="E13" t="n">
-        <v>61.93239120472967</v>
+        <v>61.93239120472964</v>
       </c>
       <c r="F13" t="n">
-        <v>62.39931553291598</v>
+        <v>62.39931553291595</v>
       </c>
       <c r="G13" t="n">
-        <v>78.4330246052472</v>
+        <v>78.43302460524717</v>
       </c>
       <c r="H13" t="n">
-        <v>67.07973325206108</v>
+        <v>67.07973325206106</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>46.95714478044761</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.6340798798721</v>
+        <v>48.63407987987208</v>
       </c>
       <c r="S13" t="n">
         <v>118.8162700318315</v>
       </c>
       <c r="T13" t="n">
-        <v>49.81670480042033</v>
+        <v>141.2609306242059</v>
       </c>
       <c r="U13" t="n">
-        <v>195.7486591160983</v>
+        <v>195.7486591160982</v>
       </c>
       <c r="V13" t="n">
         <v>169.5714185055969</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>140.3834065720133</v>
+        <v>1.982035967780348</v>
       </c>
       <c r="Y13" t="n">
         <v>131.258274328081</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301.5465712312742</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>280.539192233484</v>
       </c>
       <c r="E14" t="n">
-        <v>302.2813298033896</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>321.4531458913667</v>
+        <v>69.88063610486692</v>
       </c>
       <c r="G14" t="n">
-        <v>322.8491597882406</v>
+        <v>322.8491597882405</v>
       </c>
       <c r="H14" t="n">
         <v>235.4343762339799</v>
       </c>
       <c r="I14" t="n">
-        <v>61.8200090555741</v>
+        <v>61.82000905557409</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.55747718688174</v>
+        <v>84.55747718688173</v>
       </c>
       <c r="T14" t="n">
-        <v>71.75177236051627</v>
+        <v>131.2069945273324</v>
       </c>
       <c r="U14" t="n">
         <v>163.7369697115373</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>245.0529484714534</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>270.3530479494103</v>
       </c>
       <c r="X14" t="n">
         <v>289.6533061821569</v>
       </c>
       <c r="Y14" t="n">
-        <v>301.0499039783557</v>
+        <v>301.0499039783556</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>96.16225684418836</v>
       </c>
       <c r="I15" t="n">
-        <v>57.80139480404328</v>
+        <v>57.8013948040433</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.33892434428587</v>
+        <v>41.33892434428588</v>
       </c>
       <c r="S15" t="n">
         <v>145.9321186766747</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.16328210597135</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>79.36327695137183</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>62.98464134895022</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>59.89514109089934</v>
       </c>
       <c r="F16" t="n">
-        <v>62.39931553291598</v>
+        <v>62.39931553291595</v>
       </c>
       <c r="G16" t="n">
-        <v>78.4330246052472</v>
+        <v>78.43302460524717</v>
       </c>
       <c r="H16" t="n">
-        <v>67.07973325206108</v>
+        <v>67.07973325206105</v>
       </c>
       <c r="I16" t="n">
-        <v>46.95714478044762</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>118.8162700318315</v>
       </c>
       <c r="T16" t="n">
-        <v>37.50399656019556</v>
+        <v>141.2609306242059</v>
       </c>
       <c r="U16" t="n">
-        <v>195.7486591160983</v>
+        <v>195.7486591160982</v>
       </c>
       <c r="V16" t="n">
         <v>169.5714185055969</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.190456475842742</v>
+        <v>7.190456475842751</v>
       </c>
       <c r="T17" t="n">
         <v>53.83997381629339</v>
@@ -1941,7 +1941,7 @@
         <v>96.16225684418836</v>
       </c>
       <c r="I18" t="n">
-        <v>57.80139480404328</v>
+        <v>57.8013948040433</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.33892434428587</v>
+        <v>41.33892434428588</v>
       </c>
       <c r="S18" t="n">
         <v>145.9321186766747</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.41841521449447</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.97203610473857</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>94.96200485149014</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.44924932079248</v>
+        <v>196.8017054915156</v>
       </c>
       <c r="T19" t="n">
         <v>63.89390991316692</v>
@@ -2081,7 +2081,7 @@
         <v>224.1795505202353</v>
       </c>
       <c r="C20" t="n">
-        <v>212.190867477917</v>
+        <v>212.1908674779169</v>
       </c>
       <c r="D20" t="n">
         <v>203.172171522445</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.190456475842742</v>
+        <v>7.190456475842751</v>
       </c>
       <c r="T20" t="n">
         <v>53.83997381629339</v>
@@ -2141,7 +2141,7 @@
         <v>167.6859277604144</v>
       </c>
       <c r="W20" t="n">
-        <v>192.9860272383719</v>
+        <v>192.9860272383713</v>
       </c>
       <c r="X20" t="n">
         <v>212.2862854711179</v>
@@ -2178,7 +2178,7 @@
         <v>96.16225684418836</v>
       </c>
       <c r="I21" t="n">
-        <v>57.80139480404328</v>
+        <v>57.8013948040433</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.33892434428587</v>
+        <v>41.33892434428588</v>
       </c>
       <c r="S21" t="n">
         <v>145.9321186766747</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.066003894208197</v>
+        <v>114.0000448504368</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>42.41841521449449</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.97203610473857</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>178.8296693867771</v>
+        <v>41.44924932079248</v>
       </c>
       <c r="T22" t="n">
         <v>63.89390991316692</v>
@@ -2415,7 +2415,7 @@
         <v>96.16225684418836</v>
       </c>
       <c r="I24" t="n">
-        <v>57.80139480404328</v>
+        <v>57.8013948040433</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>41.33892434428587</v>
+        <v>41.33892434428588</v>
       </c>
       <c r="S24" t="n">
         <v>145.9321186766747</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.41841521449447</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>92.20439779455793</v>
       </c>
       <c r="W25" t="n">
-        <v>230.3053248213999</v>
+        <v>117.3712838651712</v>
       </c>
       <c r="X25" t="n">
         <v>63.01638586097431</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.891253617042</v>
+        <v>209.2437097877651</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.58396643302937</v>
+        <v>70.58396643302939</v>
       </c>
       <c r="T26" t="n">
         <v>117.23348377348</v>
@@ -2652,7 +2652,7 @@
         <v>96.16225684418836</v>
       </c>
       <c r="I27" t="n">
-        <v>57.80139480404328</v>
+        <v>57.8013948040433</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>41.33892434428587</v>
+        <v>41.33892434428588</v>
       </c>
       <c r="S27" t="n">
         <v>145.9321186766747</v>
@@ -2728,10 +2728,10 @@
         <v>64.45951385139483</v>
       </c>
       <c r="H28" t="n">
-        <v>53.10622249820871</v>
+        <v>53.10622249820872</v>
       </c>
       <c r="I28" t="n">
-        <v>32.98363402659525</v>
+        <v>32.98363402659527</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>221.4608654801276</v>
       </c>
       <c r="I29" t="n">
-        <v>47.84649830172171</v>
+        <v>47.84649830172174</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.58396643302936</v>
+        <v>70.58396643302939</v>
       </c>
       <c r="T29" t="n">
         <v>117.23348377348</v>
@@ -2889,7 +2889,7 @@
         <v>96.16225684418836</v>
       </c>
       <c r="I30" t="n">
-        <v>57.80139480404327</v>
+        <v>57.8013948040433</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.33892434428584</v>
+        <v>41.33892434428588</v>
       </c>
       <c r="S30" t="n">
         <v>145.9321186766747</v>
@@ -2965,10 +2965,10 @@
         <v>64.45951385139483</v>
       </c>
       <c r="H31" t="n">
-        <v>53.10622249820871</v>
+        <v>53.10622249820872</v>
       </c>
       <c r="I31" t="n">
-        <v>32.98363402659525</v>
+        <v>32.98363402659527</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66056912601972</v>
+        <v>34.66056912601974</v>
       </c>
       <c r="S31" t="n">
         <v>104.8427592779791</v>
@@ -3029,25 +3029,25 @@
         <v>284.9833563827019</v>
       </c>
       <c r="C32" t="n">
-        <v>272.9946733403836</v>
+        <v>272.9946733403837</v>
       </c>
       <c r="D32" t="n">
         <v>263.9759773849116</v>
       </c>
       <c r="E32" t="n">
-        <v>285.7181149548171</v>
+        <v>285.7181149548172</v>
       </c>
       <c r="F32" t="n">
         <v>304.8899310427943</v>
       </c>
       <c r="G32" t="n">
-        <v>306.2859449396681</v>
+        <v>306.2859449396682</v>
       </c>
       <c r="H32" t="n">
-        <v>218.8711613854075</v>
+        <v>218.8711613854076</v>
       </c>
       <c r="I32" t="n">
-        <v>45.2567942070017</v>
+        <v>45.25679420700176</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.99426233830935</v>
+        <v>67.99426233830941</v>
       </c>
       <c r="T32" t="n">
-        <v>114.64377967876</v>
+        <v>114.6437796787601</v>
       </c>
       <c r="U32" t="n">
-        <v>147.1737548629649</v>
+        <v>147.173754862965</v>
       </c>
       <c r="V32" t="n">
         <v>228.489733622881</v>
@@ -3092,7 +3092,7 @@
         <v>253.7898331008379</v>
       </c>
       <c r="X32" t="n">
-        <v>273.0900913335845</v>
+        <v>273.0900913335846</v>
       </c>
       <c r="Y32" t="n">
         <v>284.4866891297833</v>
@@ -3126,7 +3126,7 @@
         <v>96.16225684418836</v>
       </c>
       <c r="I33" t="n">
-        <v>57.80139480404328</v>
+        <v>57.8013948040433</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>41.33892434428587</v>
+        <v>41.33892434428588</v>
       </c>
       <c r="S33" t="n">
         <v>145.9321186766747</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>76.60006725739895</v>
+        <v>76.600067257399</v>
       </c>
       <c r="C34" t="n">
-        <v>62.80006210279943</v>
+        <v>62.80006210279949</v>
       </c>
       <c r="D34" t="n">
-        <v>46.42142650037782</v>
+        <v>46.42142650037788</v>
       </c>
       <c r="E34" t="n">
-        <v>45.36917635615727</v>
+        <v>45.36917635615733</v>
       </c>
       <c r="F34" t="n">
-        <v>45.83610068434358</v>
+        <v>45.83610068434363</v>
       </c>
       <c r="G34" t="n">
-        <v>61.8698097566748</v>
+        <v>61.86980975667485</v>
       </c>
       <c r="H34" t="n">
-        <v>50.51651840348867</v>
+        <v>50.51651840348873</v>
       </c>
       <c r="I34" t="n">
-        <v>30.39392993187522</v>
+        <v>30.39392993187528</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.0708650312997</v>
+        <v>32.07086503129977</v>
       </c>
       <c r="S34" t="n">
         <v>102.2530551832591</v>
       </c>
       <c r="T34" t="n">
-        <v>124.6977157756335</v>
+        <v>124.6977157756336</v>
       </c>
       <c r="U34" t="n">
-        <v>179.1854442675258</v>
+        <v>179.1854442675259</v>
       </c>
       <c r="V34" t="n">
-        <v>153.0082036570245</v>
+        <v>153.0082036570246</v>
       </c>
       <c r="W34" t="n">
         <v>178.1750897276378</v>
       </c>
       <c r="X34" t="n">
-        <v>123.8201917234409</v>
+        <v>123.820191723441</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.6950594795086</v>
+        <v>114.6950594795087</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.3901961984367</v>
+        <v>237.3901961984366</v>
       </c>
       <c r="C35" t="n">
         <v>225.4015131561184</v>
       </c>
       <c r="D35" t="n">
-        <v>216.3828172006464</v>
+        <v>216.3828172006463</v>
       </c>
       <c r="E35" t="n">
         <v>238.1249547705519</v>
@@ -3278,7 +3278,7 @@
         <v>257.296770858529</v>
       </c>
       <c r="G35" t="n">
-        <v>258.692784755403</v>
+        <v>258.6927847554029</v>
       </c>
       <c r="H35" t="n">
         <v>171.2780012011423</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.40110215404414</v>
+        <v>20.40110215404411</v>
       </c>
       <c r="T35" t="n">
-        <v>67.05061949449478</v>
+        <v>67.05061949449475</v>
       </c>
       <c r="U35" t="n">
-        <v>99.58059467869973</v>
+        <v>99.5805946786997</v>
       </c>
       <c r="V35" t="n">
-        <v>180.8965734386158</v>
+        <v>180.8965734386157</v>
       </c>
       <c r="W35" t="n">
         <v>206.1966729165727</v>
@@ -3332,7 +3332,7 @@
         <v>225.4969311493193</v>
       </c>
       <c r="Y35" t="n">
-        <v>236.8935289455181</v>
+        <v>236.893528945518</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>96.16225684418836</v>
       </c>
       <c r="I36" t="n">
-        <v>57.80139480404328</v>
+        <v>57.8013948040433</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>41.33892434428587</v>
+        <v>41.33892434428588</v>
       </c>
       <c r="S36" t="n">
         <v>145.9321186766747</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.00690707313373</v>
+        <v>29.0069070731337</v>
       </c>
       <c r="C37" t="n">
-        <v>15.20690191853421</v>
+        <v>15.20690191853419</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>14.27664957240959</v>
+        <v>14.27664957240956</v>
       </c>
       <c r="H37" t="n">
-        <v>2.92335821922346</v>
+        <v>23.24599938870952</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3466,16 +3466,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.97203610473857</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.65989499899387</v>
+        <v>54.65989499899384</v>
       </c>
       <c r="T37" t="n">
-        <v>79.45516065611572</v>
+        <v>77.10455559136828</v>
       </c>
       <c r="U37" t="n">
         <v>131.5922840832606</v>
@@ -3487,10 +3487,10 @@
         <v>130.5819295433726</v>
       </c>
       <c r="X37" t="n">
-        <v>76.2270315391757</v>
+        <v>76.22703153917567</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.10189929524338</v>
+        <v>67.10189929524336</v>
       </c>
     </row>
     <row r="38">
@@ -3600,7 +3600,7 @@
         <v>96.16225684418836</v>
       </c>
       <c r="I39" t="n">
-        <v>57.80139480404328</v>
+        <v>57.8013948040433</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>41.33892434428587</v>
+        <v>41.33892434428588</v>
       </c>
       <c r="S39" t="n">
         <v>145.9321186766747</v>
@@ -3676,13 +3676,13 @@
         <v>14.27664957240961</v>
       </c>
       <c r="H40" t="n">
-        <v>2.923358219223488</v>
+        <v>2.923358219223489</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>2.350605064746872</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3703,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>17.97203610473859</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>74.9825361684795</v>
+        <v>54.6598949989939</v>
       </c>
       <c r="T40" t="n">
         <v>77.10455559136834</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>237.3901961984367</v>
+        <v>237.3901961984366</v>
       </c>
       <c r="C41" t="n">
-        <v>225.4015131561184</v>
+        <v>225.4015131561183</v>
       </c>
       <c r="D41" t="n">
-        <v>216.3828172006464</v>
+        <v>216.3828172006463</v>
       </c>
       <c r="E41" t="n">
-        <v>238.1249547705519</v>
+        <v>238.1249547705518</v>
       </c>
       <c r="F41" t="n">
         <v>257.296770858529</v>
       </c>
       <c r="G41" t="n">
-        <v>258.6927847554029</v>
+        <v>258.6927847554028</v>
       </c>
       <c r="H41" t="n">
-        <v>171.2780012011423</v>
+        <v>171.2780012011422</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>20.40110215404413</v>
+        <v>20.40110215404405</v>
       </c>
       <c r="T41" t="n">
-        <v>67.05061949449478</v>
+        <v>67.0506194944947</v>
       </c>
       <c r="U41" t="n">
-        <v>99.58059467869973</v>
+        <v>99.58059467869964</v>
       </c>
       <c r="V41" t="n">
-        <v>180.8965734386158</v>
+        <v>180.8965734386157</v>
       </c>
       <c r="W41" t="n">
-        <v>206.1966729165727</v>
+        <v>206.1966729165726</v>
       </c>
       <c r="X41" t="n">
-        <v>225.4969311493193</v>
+        <v>225.4969311493192</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.8935289455181</v>
+        <v>236.893528945518</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>96.16225684418836</v>
       </c>
       <c r="I42" t="n">
-        <v>57.80139480404328</v>
+        <v>57.8013948040433</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>41.33892434428587</v>
+        <v>41.33892434428588</v>
       </c>
       <c r="S42" t="n">
         <v>145.9321186766747</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.00690707313373</v>
+        <v>29.00690707313365</v>
       </c>
       <c r="C43" t="n">
-        <v>15.20690191853421</v>
+        <v>15.20690191853413</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>20.32264116948667</v>
       </c>
       <c r="G43" t="n">
-        <v>14.27664957240959</v>
+        <v>14.2766495724095</v>
       </c>
       <c r="H43" t="n">
-        <v>2.92335821922346</v>
+        <v>2.923358219223376</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>54.65989499899387</v>
+        <v>54.65989499899379</v>
       </c>
       <c r="T43" t="n">
-        <v>77.10455559136831</v>
+        <v>77.10455559136823</v>
       </c>
       <c r="U43" t="n">
-        <v>151.9149252527466</v>
+        <v>131.5922840832606</v>
       </c>
       <c r="V43" t="n">
-        <v>105.4150434727593</v>
+        <v>105.4150434727592</v>
       </c>
       <c r="W43" t="n">
-        <v>130.5819295433726</v>
+        <v>130.5819295433725</v>
       </c>
       <c r="X43" t="n">
-        <v>76.2270315391757</v>
+        <v>76.22703153917561</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.10189929524338</v>
+        <v>67.1018992952433</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>237.3901961984367</v>
+        <v>237.3901961984366</v>
       </c>
       <c r="C44" t="n">
-        <v>225.4015131561184</v>
+        <v>225.4015131561183</v>
       </c>
       <c r="D44" t="n">
-        <v>216.3828172006464</v>
+        <v>216.3828172006463</v>
       </c>
       <c r="E44" t="n">
-        <v>238.1249547705519</v>
+        <v>238.1249547705518</v>
       </c>
       <c r="F44" t="n">
         <v>257.296770858529</v>
       </c>
       <c r="G44" t="n">
-        <v>258.6927847554029</v>
+        <v>258.6927847554028</v>
       </c>
       <c r="H44" t="n">
-        <v>171.2780012011423</v>
+        <v>171.2780012011422</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,28 +4022,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="S44" t="n">
-        <v>20.40110215404413</v>
+        <v>20.40110215404405</v>
       </c>
       <c r="T44" t="n">
-        <v>67.05061949449478</v>
+        <v>67.0506194944947</v>
       </c>
       <c r="U44" t="n">
-        <v>99.58059467869973</v>
+        <v>99.58059467869964</v>
       </c>
       <c r="V44" t="n">
-        <v>180.8965734386158</v>
+        <v>180.8965734386157</v>
       </c>
       <c r="W44" t="n">
-        <v>206.1966729165727</v>
+        <v>206.1966729165726</v>
       </c>
       <c r="X44" t="n">
-        <v>225.4969311493193</v>
+        <v>225.4969311493192</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.8935289455181</v>
+        <v>236.893528945518</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>96.16225684418836</v>
       </c>
       <c r="I45" t="n">
-        <v>57.80139480404328</v>
+        <v>57.8013948040433</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>41.33892434428587</v>
+        <v>41.33892434428588</v>
       </c>
       <c r="S45" t="n">
         <v>145.9321186766747</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.00690707313373</v>
+        <v>29.00690707313365</v>
       </c>
       <c r="C46" t="n">
-        <v>15.20690191853421</v>
+        <v>15.20690191853413</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>14.27664957240959</v>
+        <v>14.2766495724095</v>
       </c>
       <c r="H46" t="n">
-        <v>2.92335821922346</v>
+        <v>2.923358219223376</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>54.65989499899387</v>
+        <v>54.65989499899379</v>
       </c>
       <c r="T46" t="n">
-        <v>97.42719676085432</v>
+        <v>77.10455559136823</v>
       </c>
       <c r="U46" t="n">
         <v>131.5922840832606</v>
       </c>
       <c r="V46" t="n">
-        <v>105.4150434727593</v>
+        <v>105.4150434727592</v>
       </c>
       <c r="W46" t="n">
-        <v>130.5819295433726</v>
+        <v>130.5819295433725</v>
       </c>
       <c r="X46" t="n">
-        <v>76.2270315391757</v>
+        <v>76.22703153917561</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.10189929524338</v>
+        <v>87.42454046472999</v>
       </c>
     </row>
   </sheetData>
@@ -4802,46 +4802,46 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="J8" t="n">
-        <v>10.71035629773655</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="K8" t="n">
-        <v>10.71035629773655</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="L8" t="n">
-        <v>10.71035629773655</v>
+        <v>10.3099691464193</v>
       </c>
       <c r="M8" t="n">
-        <v>10.71035629773655</v>
+        <v>10.3099691464193</v>
       </c>
       <c r="N8" t="n">
-        <v>10.71035629773655</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="O8" t="n">
-        <v>20.21955114152135</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P8" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Q8" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R8" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S8" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T8" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="U8" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="V8" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="W8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="X8" t="n">
         <v>21.02234760148574</v>
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="C9" t="n">
-        <v>10.91156095206012</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="D9" t="n">
-        <v>10.91156095206012</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="E9" t="n">
-        <v>10.91156095206012</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="F9" t="n">
-        <v>10.91156095206012</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="G9" t="n">
-        <v>10.91156095206012</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="H9" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I9" t="n">
         <v>0.8007743026345088</v>
@@ -4884,7 +4884,7 @@
         <v>10.71035629773655</v>
       </c>
       <c r="K9" t="n">
-        <v>20.6199382928386</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L9" t="n">
         <v>20.6199382928386</v>
@@ -4911,22 +4911,22 @@
         <v>40.03871513172544</v>
       </c>
       <c r="T9" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="U9" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="V9" t="n">
         <v>29.92792848229982</v>
       </c>
       <c r="W9" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="X9" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
     </row>
     <row r="10">
@@ -4936,46 +4936,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="C10" t="n">
-        <v>19.81714183287421</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="J10" t="n">
         <v>0.8007743026345088</v>
       </c>
       <c r="K10" t="n">
+        <v>0.8007743026345088</v>
+      </c>
+      <c r="L10" t="n">
         <v>10.71035629773655</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>20.6199382928386</v>
-      </c>
-      <c r="M10" t="n">
-        <v>30.12913313662339</v>
       </c>
       <c r="N10" t="n">
         <v>30.12913313662339</v>
       </c>
       <c r="O10" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="P10" t="n">
         <v>40.03871513172544</v>
@@ -4984,28 +4984,28 @@
         <v>29.92792848229982</v>
       </c>
       <c r="R10" t="n">
-        <v>29.92792848229982</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="S10" t="n">
-        <v>29.92792848229982</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="T10" t="n">
-        <v>29.92792848229982</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="U10" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="V10" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="W10" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="X10" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="Y10" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1599.516255628471</v>
+        <v>1164.840408036866</v>
       </c>
       <c r="C11" t="n">
-        <v>1307.033540286091</v>
+        <v>872.3576926944861</v>
       </c>
       <c r="D11" t="n">
-        <v>1307.033540286091</v>
+        <v>676.9987163519936</v>
       </c>
       <c r="E11" t="n">
-        <v>1001.69886371701</v>
+        <v>676.9987163519936</v>
       </c>
       <c r="F11" t="n">
         <v>676.9987163519936</v>
@@ -5042,22 +5042,22 @@
         <v>167.7728174862799</v>
       </c>
       <c r="K11" t="n">
-        <v>475.5705058676345</v>
+        <v>475.5705058676344</v>
       </c>
       <c r="L11" t="n">
-        <v>907.3907625372515</v>
+        <v>907.3907625372512</v>
       </c>
       <c r="M11" t="n">
         <v>1394.023659298945</v>
       </c>
       <c r="N11" t="n">
-        <v>1680.442745084106</v>
+        <v>1867.259956695035</v>
       </c>
       <c r="O11" t="n">
-        <v>2075.063371992038</v>
+        <v>2226.932839750809</v>
       </c>
       <c r="P11" t="n">
-        <v>2379.705487326029</v>
+        <v>2531.5749550848</v>
       </c>
       <c r="Q11" t="n">
         <v>2531.5749550848</v>
@@ -5066,25 +5066,25 @@
         <v>2531.5749550848</v>
       </c>
       <c r="S11" t="n">
-        <v>2446.163361966738</v>
+        <v>2446.163361966737</v>
       </c>
       <c r="T11" t="n">
         <v>2313.631044262361</v>
       </c>
       <c r="U11" t="n">
-        <v>2148.240165765859</v>
+        <v>2313.631044262361</v>
       </c>
       <c r="V11" t="n">
-        <v>2148.240165765859</v>
+        <v>2066.102813483115</v>
       </c>
       <c r="W11" t="n">
-        <v>2148.240165765859</v>
+        <v>2066.102813483115</v>
       </c>
       <c r="X11" t="n">
-        <v>2148.240165765859</v>
+        <v>1773.523716329421</v>
       </c>
       <c r="Y11" t="n">
-        <v>1844.14935366651</v>
+        <v>1469.432904230072</v>
       </c>
     </row>
     <row r="12">
@@ -5109,7 +5109,7 @@
         <v>334.5884792963597</v>
       </c>
       <c r="G12" t="n">
-        <v>206.1503391504152</v>
+        <v>206.1503391504149</v>
       </c>
       <c r="H12" t="n">
         <v>109.0167463785074</v>
@@ -5118,25 +5118,25 @@
         <v>50.631499101696</v>
       </c>
       <c r="J12" t="n">
-        <v>137.7723726368145</v>
+        <v>50.631499101696</v>
       </c>
       <c r="K12" t="n">
-        <v>413.2166240983117</v>
+        <v>50.631499101696</v>
       </c>
       <c r="L12" t="n">
-        <v>413.2166240983117</v>
+        <v>478.2437634832976</v>
       </c>
       <c r="M12" t="n">
-        <v>970.3564823625538</v>
+        <v>1035.38362174754</v>
       </c>
       <c r="N12" t="n">
-        <v>1521.129018650604</v>
+        <v>1620.664217245915</v>
       </c>
       <c r="O12" t="n">
-        <v>1981.038188119039</v>
+        <v>2080.573386714349</v>
       </c>
       <c r="P12" t="n">
-        <v>2337.476724739038</v>
+        <v>2437.011923334349</v>
       </c>
       <c r="Q12" t="n">
         <v>2531.5749550848</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>466.9874414201565</v>
+        <v>514.4189007943461</v>
       </c>
       <c r="C13" t="n">
-        <v>386.8225152066497</v>
+        <v>434.2539745808392</v>
       </c>
       <c r="D13" t="n">
-        <v>323.2016653592252</v>
+        <v>370.6331247334147</v>
       </c>
       <c r="E13" t="n">
-        <v>260.6436944453568</v>
+        <v>308.0751538195464</v>
       </c>
       <c r="F13" t="n">
-        <v>197.6140827959467</v>
+        <v>245.0455421701363</v>
       </c>
       <c r="G13" t="n">
-        <v>118.3888054169092</v>
+        <v>165.8202647910987</v>
       </c>
       <c r="H13" t="n">
-        <v>50.631499101696</v>
+        <v>98.06295847588554</v>
       </c>
       <c r="I13" t="n">
         <v>50.631499101696</v>
       </c>
       <c r="J13" t="n">
-        <v>96.30823560199548</v>
+        <v>96.30823560199565</v>
       </c>
       <c r="K13" t="n">
-        <v>245.3024804191787</v>
+        <v>245.3024804191788</v>
       </c>
       <c r="L13" t="n">
-        <v>469.0514186062464</v>
+        <v>469.0514186062466</v>
       </c>
       <c r="M13" t="n">
-        <v>712.1149737064381</v>
+        <v>712.1149737064384</v>
       </c>
       <c r="N13" t="n">
-        <v>954.7180978637573</v>
+        <v>954.7180978637575</v>
       </c>
       <c r="O13" t="n">
-        <v>1174.575435216288</v>
+        <v>1174.575435216289</v>
       </c>
       <c r="P13" t="n">
-        <v>1354.070502065728</v>
+        <v>1354.070502065729</v>
       </c>
       <c r="Q13" t="n">
-        <v>1423.949153884686</v>
+        <v>1423.949153884687</v>
       </c>
       <c r="R13" t="n">
-        <v>1374.823820672694</v>
+        <v>1374.823820672695</v>
       </c>
       <c r="S13" t="n">
         <v>1254.807386297107</v>
       </c>
       <c r="T13" t="n">
-        <v>1204.487482458298</v>
+        <v>1112.119577585788</v>
       </c>
       <c r="U13" t="n">
-        <v>1006.76156415921</v>
+        <v>914.3936592866992</v>
       </c>
       <c r="V13" t="n">
-        <v>835.4773030424451</v>
+        <v>743.1093981699347</v>
       </c>
       <c r="W13" t="n">
-        <v>835.4773030424451</v>
+        <v>743.1093981699347</v>
       </c>
       <c r="X13" t="n">
-        <v>693.6758822626336</v>
+        <v>741.1073416368232</v>
       </c>
       <c r="Y13" t="n">
-        <v>561.0917667797236</v>
+        <v>608.5232261539131</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1307.033540286091</v>
+        <v>1030.958138915984</v>
       </c>
       <c r="C14" t="n">
-        <v>1307.033540286091</v>
+        <v>1030.958138915984</v>
       </c>
       <c r="D14" t="n">
-        <v>1307.033540286091</v>
+        <v>747.5852174680206</v>
       </c>
       <c r="E14" t="n">
-        <v>1001.69886371701</v>
+        <v>747.5852174680206</v>
       </c>
       <c r="F14" t="n">
         <v>676.9987163519936</v>
@@ -5276,25 +5276,25 @@
         <v>50.631499101696</v>
       </c>
       <c r="J14" t="n">
-        <v>50.631499101696</v>
+        <v>167.7728174862799</v>
       </c>
       <c r="K14" t="n">
-        <v>358.4291874830506</v>
+        <v>475.5705058676344</v>
       </c>
       <c r="L14" t="n">
-        <v>790.2494441526676</v>
+        <v>907.3907625372512</v>
       </c>
       <c r="M14" t="n">
-        <v>1276.882340914361</v>
+        <v>1394.023659298945</v>
       </c>
       <c r="N14" t="n">
-        <v>1750.118638310451</v>
+        <v>1867.259956695035</v>
       </c>
       <c r="O14" t="n">
-        <v>2144.739265218383</v>
+        <v>2226.932839750809</v>
       </c>
       <c r="P14" t="n">
-        <v>2449.381380552373</v>
+        <v>2531.5749550848</v>
       </c>
       <c r="Q14" t="n">
         <v>2531.5749550848</v>
@@ -5306,22 +5306,22 @@
         <v>2446.163361966738</v>
       </c>
       <c r="T14" t="n">
-        <v>2373.686824228842</v>
+        <v>2313.631044262362</v>
       </c>
       <c r="U14" t="n">
-        <v>2208.29594573234</v>
+        <v>2148.240165765859</v>
       </c>
       <c r="V14" t="n">
-        <v>2208.29594573234</v>
+        <v>1900.711934986613</v>
       </c>
       <c r="W14" t="n">
-        <v>2208.29594573234</v>
+        <v>1627.628048169027</v>
       </c>
       <c r="X14" t="n">
-        <v>1915.716848578646</v>
+        <v>1335.048951015333</v>
       </c>
       <c r="Y14" t="n">
-        <v>1611.626036479297</v>
+        <v>1030.958138915984</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>137.7723726368145</v>
       </c>
       <c r="K15" t="n">
-        <v>413.2166240983117</v>
+        <v>413.2166240983116</v>
       </c>
       <c r="L15" t="n">
-        <v>840.8288884799133</v>
+        <v>840.8288884799132</v>
       </c>
       <c r="M15" t="n">
         <v>1397.968746744155</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.227248996364</v>
+        <v>1521.129018650603</v>
       </c>
       <c r="O15" t="n">
-        <v>2175.136418464799</v>
+        <v>1981.038188119037</v>
       </c>
       <c r="P15" t="n">
-        <v>2531.574955084799</v>
+        <v>2337.476724739037</v>
       </c>
       <c r="Q15" t="n">
         <v>2531.574955084799</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>451.8609298804777</v>
+        <v>321.1438369614169</v>
       </c>
       <c r="C16" t="n">
-        <v>371.6960036669707</v>
+        <v>321.1438369614169</v>
       </c>
       <c r="D16" t="n">
-        <v>308.0751538195464</v>
+        <v>321.1438369614169</v>
       </c>
       <c r="E16" t="n">
-        <v>308.0751538195464</v>
+        <v>260.6436944453568</v>
       </c>
       <c r="F16" t="n">
-        <v>245.0455421701363</v>
+        <v>197.6140827959468</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8202647910988</v>
+        <v>118.3888054169092</v>
       </c>
       <c r="H16" t="n">
-        <v>98.06295847588552</v>
+        <v>50.631499101696</v>
       </c>
       <c r="I16" t="n">
         <v>50.631499101696</v>
@@ -5443,7 +5443,7 @@
         <v>469.0514186062464</v>
       </c>
       <c r="M16" t="n">
-        <v>712.1149737064384</v>
+        <v>712.1149737064383</v>
       </c>
       <c r="N16" t="n">
         <v>954.7180978637575</v>
@@ -5455,31 +5455,31 @@
         <v>1354.070502065729</v>
       </c>
       <c r="Q16" t="n">
-        <v>1423.949153884686</v>
+        <v>1423.949153884687</v>
       </c>
       <c r="R16" t="n">
-        <v>1423.949153884686</v>
+        <v>1423.949153884687</v>
       </c>
       <c r="S16" t="n">
-        <v>1423.949153884686</v>
+        <v>1303.932719509099</v>
       </c>
       <c r="T16" t="n">
-        <v>1386.066329076408</v>
+        <v>1161.24491079778</v>
       </c>
       <c r="U16" t="n">
-        <v>1188.340410777319</v>
+        <v>963.5189924986911</v>
       </c>
       <c r="V16" t="n">
-        <v>1017.056149660554</v>
+        <v>792.2347313819265</v>
       </c>
       <c r="W16" t="n">
-        <v>820.3507915027662</v>
+        <v>595.5293732241385</v>
       </c>
       <c r="X16" t="n">
-        <v>678.5493707229548</v>
+        <v>453.727952444327</v>
       </c>
       <c r="Y16" t="n">
-        <v>545.9652552400447</v>
+        <v>321.1438369614169</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1137.219479298934</v>
       </c>
       <c r="D17" t="n">
-        <v>931.995063619697</v>
+        <v>931.9950636196968</v>
       </c>
       <c r="E17" t="n">
-        <v>704.808892819343</v>
+        <v>704.8088928193428</v>
       </c>
       <c r="F17" t="n">
-        <v>458.2572512230524</v>
+        <v>458.2572512230522</v>
       </c>
       <c r="G17" t="n">
         <v>210.2954945794141</v>
@@ -5513,25 +5513,25 @@
         <v>50.631499101696</v>
       </c>
       <c r="J17" t="n">
-        <v>50.631499101696</v>
+        <v>132.8250736341227</v>
       </c>
       <c r="K17" t="n">
-        <v>358.4291874830506</v>
+        <v>440.6227620154772</v>
       </c>
       <c r="L17" t="n">
-        <v>790.2494441526676</v>
+        <v>872.4430186850941</v>
       </c>
       <c r="M17" t="n">
-        <v>1276.882340914361</v>
+        <v>1359.075915446788</v>
       </c>
       <c r="N17" t="n">
-        <v>1750.118638310451</v>
+        <v>1832.312212842878</v>
       </c>
       <c r="O17" t="n">
-        <v>2144.739265218383</v>
+        <v>2226.932839750809</v>
       </c>
       <c r="P17" t="n">
-        <v>2449.381380552373</v>
+        <v>2531.5749550848</v>
       </c>
       <c r="Q17" t="n">
         <v>2531.5749550848</v>
@@ -5592,25 +5592,25 @@
         <v>50.631499101696</v>
       </c>
       <c r="J18" t="n">
-        <v>137.7723726368145</v>
+        <v>50.631499101696</v>
       </c>
       <c r="K18" t="n">
-        <v>413.2166240983117</v>
+        <v>50.631499101696</v>
       </c>
       <c r="L18" t="n">
-        <v>840.8288884799133</v>
+        <v>478.2437634832976</v>
       </c>
       <c r="M18" t="n">
-        <v>935.8484231522274</v>
+        <v>1035.38362174754</v>
       </c>
       <c r="N18" t="n">
-        <v>1521.129018650603</v>
+        <v>1620.664217245915</v>
       </c>
       <c r="O18" t="n">
-        <v>1981.038188119037</v>
+        <v>2080.573386714349</v>
       </c>
       <c r="P18" t="n">
-        <v>2337.476724739037</v>
+        <v>2437.011923334349</v>
       </c>
       <c r="Q18" t="n">
         <v>2531.574955084799</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>96.57157521183288</v>
+        <v>53.72469115678795</v>
       </c>
       <c r="C19" t="n">
-        <v>94.55515476705224</v>
+        <v>51.70827071200731</v>
       </c>
       <c r="D19" t="n">
-        <v>94.55515476705224</v>
+        <v>51.70827071200731</v>
       </c>
       <c r="E19" t="n">
-        <v>94.55515476705224</v>
+        <v>51.70827071200731</v>
       </c>
       <c r="F19" t="n">
-        <v>94.55515476705224</v>
+        <v>51.70827071200731</v>
       </c>
       <c r="G19" t="n">
-        <v>93.47838315674093</v>
+        <v>50.631499101696</v>
       </c>
       <c r="H19" t="n">
-        <v>93.47838315674093</v>
+        <v>50.631499101696</v>
       </c>
       <c r="I19" t="n">
-        <v>93.47838315674093</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J19" t="n">
         <v>50.631499101696</v>
@@ -5683,40 +5683,40 @@
         <v>403.4253345181917</v>
       </c>
       <c r="N19" t="n">
-        <v>558.3574911128619</v>
+        <v>558.3574911128618</v>
       </c>
       <c r="O19" t="n">
-        <v>690.5438609027442</v>
+        <v>690.5438609027441</v>
       </c>
       <c r="P19" t="n">
-        <v>782.3679601895351</v>
+        <v>782.367960189535</v>
       </c>
       <c r="Q19" t="n">
-        <v>764.2143883665668</v>
+        <v>782.367960189535</v>
       </c>
       <c r="R19" t="n">
-        <v>668.2931713448596</v>
+        <v>782.367960189535</v>
       </c>
       <c r="S19" t="n">
-        <v>626.4252427379985</v>
+        <v>583.5783586829535</v>
       </c>
       <c r="T19" t="n">
-        <v>561.8859397954056</v>
+        <v>519.0390557403607</v>
       </c>
       <c r="U19" t="n">
-        <v>442.3085272650428</v>
+        <v>399.4616432099979</v>
       </c>
       <c r="V19" t="n">
-        <v>349.1727719170044</v>
+        <v>306.3258878619595</v>
       </c>
       <c r="W19" t="n">
-        <v>230.6159195279426</v>
+        <v>187.7690354728977</v>
       </c>
       <c r="X19" t="n">
-        <v>166.9630045168575</v>
+        <v>124.1161204618125</v>
       </c>
       <c r="Y19" t="n">
-        <v>112.5273948026736</v>
+        <v>69.6805107476287</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1351.553688872587</v>
+        <v>1351.553688872588</v>
       </c>
       <c r="C20" t="n">
         <v>1137.219479298934</v>
@@ -5753,22 +5753,22 @@
         <v>167.7728174862799</v>
       </c>
       <c r="K20" t="n">
-        <v>475.5705058676345</v>
+        <v>475.5705058676344</v>
       </c>
       <c r="L20" t="n">
-        <v>907.3907625372515</v>
+        <v>907.3907625372512</v>
       </c>
       <c r="M20" t="n">
-        <v>1207.206447688016</v>
+        <v>1394.023659298945</v>
       </c>
       <c r="N20" t="n">
-        <v>1680.442745084106</v>
+        <v>1867.259956695035</v>
       </c>
       <c r="O20" t="n">
-        <v>2075.063371992038</v>
+        <v>2261.880583602966</v>
       </c>
       <c r="P20" t="n">
-        <v>2379.705487326029</v>
+        <v>2531.5749550848</v>
       </c>
       <c r="Q20" t="n">
         <v>2531.5749550848</v>
@@ -5792,10 +5792,10 @@
         <v>2018.370577012658</v>
       </c>
       <c r="X20" t="n">
-        <v>1803.93998562769</v>
+        <v>1803.939985627691</v>
       </c>
       <c r="Y20" t="n">
-        <v>1577.997679297067</v>
+        <v>1577.997679297068</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>916.8525970584473</v>
+        <v>916.8525970584468</v>
       </c>
       <c r="C21" t="n">
-        <v>755.1489242994021</v>
+        <v>755.1489242994015</v>
       </c>
       <c r="D21" t="n">
-        <v>616.3102872896141</v>
+        <v>616.3102872896136</v>
       </c>
       <c r="E21" t="n">
-        <v>469.2822773464852</v>
+        <v>469.2822773464849</v>
       </c>
       <c r="F21" t="n">
-        <v>334.5884792963597</v>
+        <v>334.5884792963592</v>
       </c>
       <c r="G21" t="n">
-        <v>206.1503391504152</v>
+        <v>206.1503391504149</v>
       </c>
       <c r="H21" t="n">
         <v>109.0167463785074</v>
@@ -5829,46 +5829,46 @@
         <v>50.631499101696</v>
       </c>
       <c r="J21" t="n">
-        <v>137.7723726368145</v>
+        <v>50.631499101696</v>
       </c>
       <c r="K21" t="n">
-        <v>413.2166240983117</v>
+        <v>326.0757505631932</v>
       </c>
       <c r="L21" t="n">
-        <v>840.8288884799133</v>
+        <v>753.6880149447948</v>
       </c>
       <c r="M21" t="n">
-        <v>1397.968746744155</v>
+        <v>1310.827873209037</v>
       </c>
       <c r="N21" t="n">
-        <v>1521.129018650604</v>
+        <v>1896.108468707412</v>
       </c>
       <c r="O21" t="n">
-        <v>1981.038188119039</v>
+        <v>2356.017638175847</v>
       </c>
       <c r="P21" t="n">
-        <v>2337.476724739038</v>
+        <v>2356.017638175847</v>
       </c>
       <c r="Q21" t="n">
-        <v>2531.5749550848</v>
+        <v>2531.574955084799</v>
       </c>
       <c r="R21" t="n">
-        <v>2489.818465848147</v>
+        <v>2489.818465848146</v>
       </c>
       <c r="S21" t="n">
-        <v>2342.412285366658</v>
+        <v>2342.412285366657</v>
       </c>
       <c r="T21" t="n">
-        <v>2154.897535411935</v>
+        <v>2154.897535411934</v>
       </c>
       <c r="U21" t="n">
-        <v>1936.421845630691</v>
+        <v>1936.42184563069</v>
       </c>
       <c r="V21" t="n">
-        <v>1708.026223079025</v>
+        <v>1708.026223079024</v>
       </c>
       <c r="W21" t="n">
-        <v>1466.710354312335</v>
+        <v>1466.710354312334</v>
       </c>
       <c r="X21" t="n">
         <v>1268.793366190129</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.72469115678795</v>
+        <v>210.6463640565083</v>
       </c>
       <c r="C22" t="n">
-        <v>51.70827071200731</v>
+        <v>208.6299436117276</v>
       </c>
       <c r="D22" t="n">
-        <v>51.70827071200731</v>
+        <v>208.6299436117276</v>
       </c>
       <c r="E22" t="n">
-        <v>51.70827071200731</v>
+        <v>208.6299436117276</v>
       </c>
       <c r="F22" t="n">
-        <v>51.70827071200731</v>
+        <v>208.6299436117276</v>
       </c>
       <c r="G22" t="n">
-        <v>50.631499101696</v>
+        <v>93.47838315674093</v>
       </c>
       <c r="H22" t="n">
-        <v>50.631499101696</v>
+        <v>93.47838315674093</v>
       </c>
       <c r="I22" t="n">
-        <v>50.631499101696</v>
+        <v>93.47838315674093</v>
       </c>
       <c r="J22" t="n">
         <v>50.631499101696</v>
@@ -5920,40 +5920,40 @@
         <v>403.4253345181917</v>
       </c>
       <c r="N22" t="n">
-        <v>558.3574911128619</v>
+        <v>558.3574911128618</v>
       </c>
       <c r="O22" t="n">
-        <v>690.5438609027442</v>
+        <v>690.5438609027441</v>
       </c>
       <c r="P22" t="n">
-        <v>782.3679601895351</v>
+        <v>782.367960189535</v>
       </c>
       <c r="Q22" t="n">
-        <v>764.2143883665668</v>
+        <v>782.367960189535</v>
       </c>
       <c r="R22" t="n">
-        <v>764.2143883665668</v>
+        <v>782.367960189535</v>
       </c>
       <c r="S22" t="n">
-        <v>583.5783586829535</v>
+        <v>740.5000315826738</v>
       </c>
       <c r="T22" t="n">
-        <v>519.0390557403607</v>
+        <v>675.960728640081</v>
       </c>
       <c r="U22" t="n">
-        <v>399.4616432099979</v>
+        <v>556.3833161097182</v>
       </c>
       <c r="V22" t="n">
-        <v>306.3258878619595</v>
+        <v>463.2475607616798</v>
       </c>
       <c r="W22" t="n">
-        <v>187.7690354728977</v>
+        <v>344.690708372618</v>
       </c>
       <c r="X22" t="n">
-        <v>124.1161204618125</v>
+        <v>281.0377933615329</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.6805107476287</v>
+        <v>226.602183647349</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1137.219479298934</v>
       </c>
       <c r="D23" t="n">
-        <v>931.9950636196968</v>
+        <v>931.9950636196966</v>
       </c>
       <c r="E23" t="n">
-        <v>704.8088928193428</v>
+        <v>704.8088928193422</v>
       </c>
       <c r="F23" t="n">
-        <v>458.2572512230522</v>
+        <v>458.2572512230518</v>
       </c>
       <c r="G23" t="n">
         <v>210.2954945794141</v>
@@ -5987,25 +5987,25 @@
         <v>50.63149910169599</v>
       </c>
       <c r="J23" t="n">
-        <v>167.7728174862799</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="K23" t="n">
-        <v>475.5705058676345</v>
+        <v>358.4291874830506</v>
       </c>
       <c r="L23" t="n">
-        <v>907.3907625372515</v>
+        <v>790.2494441526674</v>
       </c>
       <c r="M23" t="n">
-        <v>1394.023659298945</v>
+        <v>1276.882340914361</v>
       </c>
       <c r="N23" t="n">
-        <v>1867.259956695035</v>
+        <v>1750.118638310451</v>
       </c>
       <c r="O23" t="n">
-        <v>2261.880583602967</v>
+        <v>2144.739265218383</v>
       </c>
       <c r="P23" t="n">
-        <v>2379.705487326028</v>
+        <v>2449.381380552373</v>
       </c>
       <c r="Q23" t="n">
         <v>2531.5749550848</v>
@@ -6014,7 +6014,7 @@
         <v>2531.5749550848</v>
       </c>
       <c r="S23" t="n">
-        <v>2524.311867735464</v>
+        <v>2524.311867735463</v>
       </c>
       <c r="T23" t="n">
         <v>2469.928055799814</v>
@@ -6051,13 +6051,13 @@
         <v>616.3102872896136</v>
       </c>
       <c r="E24" t="n">
-        <v>469.2822773464848</v>
+        <v>469.2822773464849</v>
       </c>
       <c r="F24" t="n">
-        <v>334.5884792963591</v>
+        <v>334.5884792963592</v>
       </c>
       <c r="G24" t="n">
-        <v>206.1503391504148</v>
+        <v>206.1503391504149</v>
       </c>
       <c r="H24" t="n">
         <v>109.0167463785074</v>
@@ -6081,10 +6081,10 @@
         <v>1896.108468707412</v>
       </c>
       <c r="O24" t="n">
-        <v>1981.038188119037</v>
+        <v>2356.017638175847</v>
       </c>
       <c r="P24" t="n">
-        <v>2337.476724739037</v>
+        <v>2531.574955084799</v>
       </c>
       <c r="Q24" t="n">
         <v>2531.574955084799</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.57157521183287</v>
+        <v>53.72469115678794</v>
       </c>
       <c r="C25" t="n">
-        <v>94.55515476705223</v>
+        <v>51.70827071200731</v>
       </c>
       <c r="D25" t="n">
-        <v>94.55515476705223</v>
+        <v>51.70827071200731</v>
       </c>
       <c r="E25" t="n">
-        <v>94.55515476705223</v>
+        <v>51.70827071200731</v>
       </c>
       <c r="F25" t="n">
-        <v>94.55515476705223</v>
+        <v>51.70827071200731</v>
       </c>
       <c r="G25" t="n">
-        <v>93.47838315674092</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="H25" t="n">
-        <v>93.47838315674092</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="I25" t="n">
-        <v>93.47838315674092</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="J25" t="n">
         <v>50.63149910169599</v>
@@ -6157,25 +6157,25 @@
         <v>403.4253345181917</v>
       </c>
       <c r="N25" t="n">
-        <v>558.3574911128619</v>
+        <v>558.3574911128618</v>
       </c>
       <c r="O25" t="n">
-        <v>690.5438609027442</v>
+        <v>690.5438609027441</v>
       </c>
       <c r="P25" t="n">
-        <v>782.3679601895351</v>
+        <v>782.367960189535</v>
       </c>
       <c r="Q25" t="n">
-        <v>782.3679601895351</v>
+        <v>782.367960189535</v>
       </c>
       <c r="R25" t="n">
-        <v>782.3679601895351</v>
+        <v>782.367960189535</v>
       </c>
       <c r="S25" t="n">
-        <v>740.500031582674</v>
+        <v>740.5000315826738</v>
       </c>
       <c r="T25" t="n">
-        <v>675.9607286400811</v>
+        <v>675.960728640081</v>
       </c>
       <c r="U25" t="n">
         <v>556.3833161097182</v>
@@ -6184,13 +6184,13 @@
         <v>463.2475607616798</v>
       </c>
       <c r="W25" t="n">
-        <v>230.6159195279426</v>
+        <v>344.690708372618</v>
       </c>
       <c r="X25" t="n">
-        <v>166.9630045168574</v>
+        <v>281.0377933615329</v>
       </c>
       <c r="Y25" t="n">
-        <v>112.5273948026736</v>
+        <v>69.68051074762869</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1803.368283428341</v>
+        <v>1803.36828342834</v>
       </c>
       <c r="C26" t="n">
-        <v>1525.000225413085</v>
+        <v>1525.000225413084</v>
       </c>
       <c r="D26" t="n">
-        <v>1255.741961292245</v>
+        <v>1255.741961292244</v>
       </c>
       <c r="E26" t="n">
-        <v>964.5219420502881</v>
+        <v>964.5219420502877</v>
       </c>
       <c r="F26" t="n">
-        <v>653.936452012395</v>
+        <v>653.9364520123945</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9408469271543</v>
+        <v>341.9408469271539</v>
       </c>
       <c r="H26" t="n">
         <v>118.2430030078329</v>
@@ -6224,10 +6224,10 @@
         <v>69.9132067434675</v>
       </c>
       <c r="J26" t="n">
-        <v>288.5592683370143</v>
+        <v>188.4268280990909</v>
       </c>
       <c r="K26" t="n">
-        <v>697.8616999273318</v>
+        <v>597.7292596894083</v>
       </c>
       <c r="L26" t="n">
         <v>1131.054259567988</v>
@@ -6254,22 +6254,22 @@
         <v>3424.363401382436</v>
       </c>
       <c r="T26" t="n">
-        <v>3305.945741005184</v>
+        <v>3305.945741005183</v>
       </c>
       <c r="U26" t="n">
-        <v>3154.669519835805</v>
+        <v>3154.669519835804</v>
       </c>
       <c r="V26" t="n">
-        <v>2921.255946383682</v>
+        <v>2921.255946383681</v>
       </c>
       <c r="W26" t="n">
-        <v>2662.28671689322</v>
+        <v>2662.286716893219</v>
       </c>
       <c r="X26" t="n">
-        <v>2383.82227706665</v>
+        <v>2383.822277066649</v>
       </c>
       <c r="Y26" t="n">
-        <v>2093.846122294424</v>
+        <v>2093.846122294423</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>936.1343047002182</v>
+        <v>936.1343047002184</v>
       </c>
       <c r="C27" t="n">
-        <v>774.4306319411729</v>
+        <v>774.4306319411731</v>
       </c>
       <c r="D27" t="n">
-        <v>635.591994931385</v>
+        <v>635.5919949313852</v>
       </c>
       <c r="E27" t="n">
-        <v>488.5639849882563</v>
+        <v>488.5639849882564</v>
       </c>
       <c r="F27" t="n">
-        <v>353.8701869381306</v>
+        <v>353.8701869381307</v>
       </c>
       <c r="G27" t="n">
-        <v>225.4320467921863</v>
+        <v>225.4320467921864</v>
       </c>
       <c r="H27" t="n">
         <v>128.2984540202789</v>
@@ -6306,13 +6306,13 @@
         <v>69.9132067434675</v>
       </c>
       <c r="K27" t="n">
-        <v>345.3574582049647</v>
+        <v>164.4762384939174</v>
       </c>
       <c r="L27" t="n">
-        <v>772.9697225865664</v>
+        <v>592.088502875519</v>
       </c>
       <c r="M27" t="n">
-        <v>1330.109580850808</v>
+        <v>1149.228361139761</v>
       </c>
       <c r="N27" t="n">
         <v>1734.508956638136</v>
@@ -6330,16 +6330,16 @@
         <v>2509.100173489918</v>
       </c>
       <c r="S27" t="n">
-        <v>2361.693993008428</v>
+        <v>2361.693993008429</v>
       </c>
       <c r="T27" t="n">
         <v>2174.179243053706</v>
       </c>
       <c r="U27" t="n">
-        <v>1955.703553272461</v>
+        <v>1955.703553272462</v>
       </c>
       <c r="V27" t="n">
-        <v>1727.307930720795</v>
+        <v>1727.307930720796</v>
       </c>
       <c r="W27" t="n">
         <v>1485.992061954106</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.8980071462524</v>
+        <v>434.8980071462523</v>
       </c>
       <c r="C28" t="n">
-        <v>368.8477382598691</v>
+        <v>368.8477382598689</v>
       </c>
       <c r="D28" t="n">
-        <v>319.3415457395682</v>
+        <v>319.3415457395681</v>
       </c>
       <c r="E28" t="n">
-        <v>270.8982321528235</v>
+        <v>270.8982321528233</v>
       </c>
       <c r="F28" t="n">
-        <v>221.983277830537</v>
+        <v>221.9832778305368</v>
       </c>
       <c r="G28" t="n">
-        <v>156.872657778623</v>
+        <v>156.8726577786229</v>
       </c>
       <c r="H28" t="n">
         <v>103.2300087905334</v>
@@ -6382,13 +6382,13 @@
         <v>69.9132067434675</v>
       </c>
       <c r="J28" t="n">
-        <v>129.4237188900808</v>
+        <v>129.4237188900811</v>
       </c>
       <c r="K28" t="n">
-        <v>292.251739353578</v>
+        <v>292.2517393535782</v>
       </c>
       <c r="L28" t="n">
-        <v>529.8344531869595</v>
+        <v>529.8344531869596</v>
       </c>
       <c r="M28" t="n">
         <v>786.7317839334653</v>
@@ -6403,16 +6403,16 @@
         <v>1470.188639231697</v>
       </c>
       <c r="Q28" t="n">
-        <v>1553.901066696969</v>
+        <v>1553.901066696968</v>
       </c>
       <c r="R28" t="n">
-        <v>1518.890390812101</v>
+        <v>1518.8903908121</v>
       </c>
       <c r="S28" t="n">
-        <v>1412.988613763637</v>
+        <v>1412.988613763636</v>
       </c>
       <c r="T28" t="n">
-        <v>1284.415462379441</v>
+        <v>1284.41546237944</v>
       </c>
       <c r="U28" t="n">
         <v>1100.804201407476</v>
@@ -6427,7 +6427,7 @@
         <v>633.3571333344823</v>
       </c>
       <c r="Y28" t="n">
-        <v>514.8876751786959</v>
+        <v>514.8876751786956</v>
       </c>
     </row>
     <row r="29">
@@ -6446,49 +6446,49 @@
         <v>1255.741961292245</v>
       </c>
       <c r="E29" t="n">
-        <v>964.5219420502885</v>
+        <v>964.5219420502887</v>
       </c>
       <c r="F29" t="n">
         <v>653.9364520123954</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9408469271543</v>
+        <v>341.9408469271548</v>
       </c>
       <c r="H29" t="n">
         <v>118.2430030078329</v>
       </c>
       <c r="I29" t="n">
-        <v>69.9132067434675</v>
+        <v>69.91320674346751</v>
       </c>
       <c r="J29" t="n">
         <v>288.5592683370143</v>
       </c>
       <c r="K29" t="n">
-        <v>697.8616999273319</v>
+        <v>597.7292596894092</v>
       </c>
       <c r="L29" t="n">
-        <v>1131.054259567987</v>
+        <v>1131.054259567989</v>
       </c>
       <c r="M29" t="n">
-        <v>1719.191899538643</v>
+        <v>1719.191899538645</v>
       </c>
       <c r="N29" t="n">
-        <v>2293.932940143696</v>
+        <v>2293.932940143698</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.058310260591</v>
+        <v>2790.058310260592</v>
       </c>
       <c r="P29" t="n">
-        <v>3196.205168803545</v>
+        <v>3196.205168803546</v>
       </c>
       <c r="Q29" t="n">
-        <v>3449.579379771279</v>
+        <v>3449.57937977128</v>
       </c>
       <c r="R29" t="n">
         <v>3495.660337173375</v>
       </c>
       <c r="S29" t="n">
-        <v>3424.363401382436</v>
+        <v>3424.363401382437</v>
       </c>
       <c r="T29" t="n">
         <v>3305.945741005184</v>
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>936.1343047002182</v>
+        <v>936.1343047002184</v>
       </c>
       <c r="C30" t="n">
-        <v>774.4306319411729</v>
+        <v>774.4306319411731</v>
       </c>
       <c r="D30" t="n">
-        <v>635.591994931385</v>
+        <v>635.5919949313852</v>
       </c>
       <c r="E30" t="n">
-        <v>488.5639849882563</v>
+        <v>488.5639849882564</v>
       </c>
       <c r="F30" t="n">
-        <v>353.8701869381306</v>
+        <v>353.8701869381307</v>
       </c>
       <c r="G30" t="n">
-        <v>225.4320467921863</v>
+        <v>225.4320467921864</v>
       </c>
       <c r="H30" t="n">
         <v>128.2984540202789</v>
       </c>
       <c r="I30" t="n">
-        <v>69.9132067434675</v>
+        <v>69.91320674346751</v>
       </c>
       <c r="J30" t="n">
-        <v>69.9132067434675</v>
+        <v>69.91320674346751</v>
       </c>
       <c r="K30" t="n">
-        <v>345.3574582049648</v>
+        <v>69.91320674346751</v>
       </c>
       <c r="L30" t="n">
-        <v>772.9697225865666</v>
+        <v>497.5254711250691</v>
       </c>
       <c r="M30" t="n">
-        <v>1330.109580850809</v>
+        <v>1054.665329389311</v>
       </c>
       <c r="N30" t="n">
-        <v>1734.508956638135</v>
+        <v>1639.945924887686</v>
       </c>
       <c r="O30" t="n">
-        <v>2194.418126106571</v>
+        <v>2099.855094356121</v>
       </c>
       <c r="P30" t="n">
-        <v>2550.85666272657</v>
+        <v>2456.293630976121</v>
       </c>
       <c r="Q30" t="n">
         <v>2550.85666272657</v>
@@ -6567,16 +6567,16 @@
         <v>2509.100173489918</v>
       </c>
       <c r="S30" t="n">
-        <v>2361.693993008428</v>
+        <v>2361.693993008429</v>
       </c>
       <c r="T30" t="n">
         <v>2174.179243053706</v>
       </c>
       <c r="U30" t="n">
-        <v>1955.703553272461</v>
+        <v>1955.703553272462</v>
       </c>
       <c r="V30" t="n">
-        <v>1727.307930720795</v>
+        <v>1727.307930720796</v>
       </c>
       <c r="W30" t="n">
         <v>1485.992061954106</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>434.8980071462532</v>
+        <v>434.8980071462527</v>
       </c>
       <c r="C31" t="n">
-        <v>368.8477382598699</v>
+        <v>368.8477382598694</v>
       </c>
       <c r="D31" t="n">
-        <v>319.341545739569</v>
+        <v>319.3415457395685</v>
       </c>
       <c r="E31" t="n">
-        <v>270.8982321528242</v>
+        <v>270.8982321528238</v>
       </c>
       <c r="F31" t="n">
-        <v>221.9832778305377</v>
+        <v>221.9832778305373</v>
       </c>
       <c r="G31" t="n">
-        <v>156.8726577786238</v>
+        <v>156.8726577786233</v>
       </c>
       <c r="H31" t="n">
-        <v>103.2300087905342</v>
+        <v>103.2300087905334</v>
       </c>
       <c r="I31" t="n">
-        <v>69.9132067434675</v>
+        <v>69.91320674346751</v>
       </c>
       <c r="J31" t="n">
-        <v>129.4237188900809</v>
+        <v>129.4237188900811</v>
       </c>
       <c r="K31" t="n">
         <v>292.2517393535782</v>
@@ -6637,7 +6637,7 @@
         <v>1276.859796735944</v>
       </c>
       <c r="P31" t="n">
-        <v>1470.188639231698</v>
+        <v>1470.188639231697</v>
       </c>
       <c r="Q31" t="n">
         <v>1553.901066696969</v>
@@ -6649,22 +6649,22 @@
         <v>1412.988613763637</v>
       </c>
       <c r="T31" t="n">
-        <v>1284.415462379442</v>
+        <v>1284.415462379441</v>
       </c>
       <c r="U31" t="n">
         <v>1100.804201407476</v>
       </c>
       <c r="V31" t="n">
-        <v>943.6345976178353</v>
+        <v>943.6345976178349</v>
       </c>
       <c r="W31" t="n">
-        <v>761.0438967871709</v>
+        <v>761.0438967871704</v>
       </c>
       <c r="X31" t="n">
-        <v>633.357133334483</v>
+        <v>633.3571333344826</v>
       </c>
       <c r="Y31" t="n">
-        <v>514.8876751786966</v>
+        <v>514.8876751786961</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1784.25647007213</v>
+        <v>1784.256470072131</v>
       </c>
       <c r="C32" t="n">
-        <v>1508.504274778813</v>
+        <v>1508.504274778814</v>
       </c>
       <c r="D32" t="n">
-        <v>1241.861873379913</v>
+        <v>1241.861873379914</v>
       </c>
       <c r="E32" t="n">
-        <v>953.2577168598955</v>
+        <v>953.2577168598964</v>
       </c>
       <c r="F32" t="n">
-        <v>645.2880895439423</v>
+        <v>645.2880895439425</v>
       </c>
       <c r="G32" t="n">
-        <v>335.9083471806412</v>
+        <v>335.9083471806414</v>
       </c>
       <c r="H32" t="n">
         <v>114.826365983259</v>
       </c>
       <c r="I32" t="n">
-        <v>69.11243244083299</v>
+        <v>69.112432440833</v>
       </c>
       <c r="J32" t="n">
-        <v>290.3223010881526</v>
+        <v>290.3223010881525</v>
       </c>
       <c r="K32" t="n">
-        <v>702.1885397322428</v>
+        <v>702.1885397322427</v>
       </c>
       <c r="L32" t="n">
-        <v>1238.077346664596</v>
+        <v>1238.077346664595</v>
       </c>
       <c r="M32" t="n">
-        <v>1828.778793689025</v>
+        <v>1828.778793689024</v>
       </c>
       <c r="N32" t="n">
-        <v>2406.083641347851</v>
+        <v>2406.08364134785</v>
       </c>
       <c r="O32" t="n">
-        <v>2800.704268255782</v>
+        <v>2846.396724230284</v>
       </c>
       <c r="P32" t="n">
-        <v>3151.038839564274</v>
+        <v>3151.038839564275</v>
       </c>
       <c r="Q32" t="n">
-        <v>3406.976857585781</v>
+        <v>3406.976857585782</v>
       </c>
       <c r="R32" t="n">
-        <v>3455.621622041649</v>
+        <v>3455.62162204165</v>
       </c>
       <c r="S32" t="n">
-        <v>3386.94054897265</v>
+        <v>3386.940548972651</v>
       </c>
       <c r="T32" t="n">
-        <v>3271.138751317337</v>
+        <v>3271.138751317338</v>
       </c>
       <c r="U32" t="n">
-        <v>3122.478392869897</v>
+        <v>3122.478392869898</v>
       </c>
       <c r="V32" t="n">
-        <v>2891.680682139714</v>
+        <v>2891.680682139715</v>
       </c>
       <c r="W32" t="n">
-        <v>2635.327315371191</v>
+        <v>2635.327315371192</v>
       </c>
       <c r="X32" t="n">
-        <v>2359.47873826656</v>
+        <v>2359.478738266561</v>
       </c>
       <c r="Y32" t="n">
-        <v>2072.118446216274</v>
+        <v>2072.118446216275</v>
       </c>
     </row>
     <row r="33">
@@ -6768,34 +6768,34 @@
         <v>353.0694126354962</v>
       </c>
       <c r="G33" t="n">
-        <v>224.6312724895518</v>
+        <v>224.6312724895519</v>
       </c>
       <c r="H33" t="n">
         <v>127.4976797176444</v>
       </c>
       <c r="I33" t="n">
-        <v>69.11243244083299</v>
+        <v>69.112432440833</v>
       </c>
       <c r="J33" t="n">
-        <v>69.11243244083299</v>
+        <v>156.2533059759514</v>
       </c>
       <c r="K33" t="n">
-        <v>344.5566839023302</v>
+        <v>431.6975574374486</v>
       </c>
       <c r="L33" t="n">
-        <v>772.1689482839319</v>
+        <v>859.3098218190502</v>
       </c>
       <c r="M33" t="n">
-        <v>1329.308806548174</v>
+        <v>1416.449680083292</v>
       </c>
       <c r="N33" t="n">
-        <v>1733.708182335502</v>
+        <v>1539.60995198974</v>
       </c>
       <c r="O33" t="n">
-        <v>2193.617351803936</v>
+        <v>1999.519121458175</v>
       </c>
       <c r="P33" t="n">
-        <v>2550.055888423936</v>
+        <v>2355.957658078174</v>
       </c>
       <c r="Q33" t="n">
         <v>2550.055888423936</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>415.7861937900419</v>
+        <v>415.7861937900423</v>
       </c>
       <c r="C34" t="n">
-        <v>352.351787625598</v>
+        <v>352.3517876255984</v>
       </c>
       <c r="D34" t="n">
-        <v>305.4614578272366</v>
+        <v>305.4614578272369</v>
       </c>
       <c r="E34" t="n">
-        <v>259.6340069624313</v>
+        <v>259.6340069624315</v>
       </c>
       <c r="F34" t="n">
-        <v>213.3349153620842</v>
+        <v>213.3349153620844</v>
       </c>
       <c r="G34" t="n">
-        <v>150.8401580321097</v>
+        <v>150.8401580321098</v>
       </c>
       <c r="H34" t="n">
-        <v>99.81337176595949</v>
+        <v>99.81337176595956</v>
       </c>
       <c r="I34" t="n">
-        <v>69.11243244083299</v>
+        <v>69.112432440833</v>
       </c>
       <c r="J34" t="n">
-        <v>131.1867516412192</v>
+        <v>131.1867516412191</v>
       </c>
       <c r="K34" t="n">
-        <v>296.5785791584891</v>
+        <v>296.5785791584889</v>
       </c>
       <c r="L34" t="n">
-        <v>536.7251000456434</v>
+        <v>536.7251000456432</v>
       </c>
       <c r="M34" t="n">
-        <v>796.1862378459221</v>
+        <v>796.1862378459217</v>
       </c>
       <c r="N34" t="n">
-        <v>992.8226847221143</v>
+        <v>1055.186944703328</v>
       </c>
       <c r="O34" t="n">
-        <v>1229.077604774732</v>
+        <v>1291.441864755946</v>
       </c>
       <c r="P34" t="n">
-        <v>1424.970254324259</v>
+        <v>1424.97025432426</v>
       </c>
       <c r="Q34" t="n">
-        <v>1511.246488843303</v>
+        <v>1511.246488843304</v>
       </c>
       <c r="R34" t="n">
-        <v>1478.851675680374</v>
+        <v>1478.851675680375</v>
       </c>
       <c r="S34" t="n">
-        <v>1375.56576135385</v>
+        <v>1375.565761353851</v>
       </c>
       <c r="T34" t="n">
-        <v>1249.608472691594</v>
+        <v>1249.608472691595</v>
       </c>
       <c r="U34" t="n">
-        <v>1068.613074441568</v>
+        <v>1068.613074441569</v>
       </c>
       <c r="V34" t="n">
-        <v>914.0593333738665</v>
+        <v>914.059333373867</v>
       </c>
       <c r="W34" t="n">
-        <v>734.0844952651414</v>
+        <v>734.084495265142</v>
       </c>
       <c r="X34" t="n">
-        <v>609.013594534393</v>
+        <v>609.0135945343935</v>
       </c>
       <c r="Y34" t="n">
-        <v>493.1599991005459</v>
+        <v>493.1599991005464</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1435.43080428974</v>
+        <v>1435.430804289741</v>
       </c>
       <c r="C35" t="n">
         <v>1207.752508172449</v>
       </c>
       <c r="D35" t="n">
-        <v>989.1840059495736</v>
+        <v>989.1840059495742</v>
       </c>
       <c r="E35" t="n">
-        <v>748.6537486055818</v>
+        <v>748.6537486055821</v>
       </c>
       <c r="F35" t="n">
-        <v>488.7580204656533</v>
+        <v>488.7580204656535</v>
       </c>
       <c r="G35" t="n">
-        <v>227.452177278377</v>
+        <v>227.4521772783769</v>
       </c>
       <c r="H35" t="n">
         <v>54.44409525702108</v>
@@ -6938,7 +6938,7 @@
         <v>171.5854136416049</v>
       </c>
       <c r="K35" t="n">
-        <v>479.3831020229594</v>
+        <v>479.3831020229595</v>
       </c>
       <c r="L35" t="n">
         <v>911.2033586925763</v>
@@ -6953,7 +6953,7 @@
         <v>2265.693179758292</v>
       </c>
       <c r="P35" t="n">
-        <v>2570.335295092283</v>
+        <v>2570.335295092282</v>
       </c>
       <c r="Q35" t="n">
         <v>2722.204762851054</v>
@@ -7017,22 +7017,22 @@
         <v>54.44409525702108</v>
       </c>
       <c r="K36" t="n">
-        <v>311.3474332817083</v>
+        <v>149.0071270074707</v>
       </c>
       <c r="L36" t="n">
-        <v>738.95969766331</v>
+        <v>576.6193913890722</v>
       </c>
       <c r="M36" t="n">
-        <v>1296.099555927552</v>
+        <v>1133.759249653314</v>
       </c>
       <c r="N36" t="n">
-        <v>1881.380151425927</v>
+        <v>1719.039845151689</v>
       </c>
       <c r="O36" t="n">
-        <v>2341.289320894362</v>
+        <v>2178.949014620124</v>
       </c>
       <c r="P36" t="n">
-        <v>2341.289320894362</v>
+        <v>2535.387551240124</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.387551240124</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.17834748951326</v>
+        <v>107.7062678627315</v>
       </c>
       <c r="C37" t="n">
-        <v>71.81784050109486</v>
+        <v>92.34576087431309</v>
       </c>
       <c r="D37" t="n">
-        <v>71.81784050109486</v>
+        <v>92.34576087431309</v>
       </c>
       <c r="E37" t="n">
-        <v>71.81784050109486</v>
+        <v>92.34576087431309</v>
       </c>
       <c r="F37" t="n">
-        <v>71.81784050109486</v>
+        <v>92.34576087431309</v>
       </c>
       <c r="G37" t="n">
-        <v>57.39698234714579</v>
+        <v>77.92490272036403</v>
       </c>
       <c r="H37" t="n">
         <v>54.44409525702108</v>
@@ -7105,40 +7105,40 @@
         <v>407.2379306735168</v>
       </c>
       <c r="N37" t="n">
-        <v>562.170087268187</v>
+        <v>562.1700872681869</v>
       </c>
       <c r="O37" t="n">
-        <v>694.3564570580693</v>
+        <v>694.3564570580692</v>
       </c>
       <c r="P37" t="n">
-        <v>786.1805563448602</v>
+        <v>786.1805563448601</v>
       </c>
       <c r="Q37" t="n">
-        <v>768.0269845218919</v>
+        <v>786.1805563448601</v>
       </c>
       <c r="R37" t="n">
-        <v>768.0269845218919</v>
+        <v>786.1805563448601</v>
       </c>
       <c r="S37" t="n">
-        <v>712.8149693713931</v>
+        <v>730.9685411943613</v>
       </c>
       <c r="T37" t="n">
-        <v>632.5572313349126</v>
+        <v>653.0851517081306</v>
       </c>
       <c r="U37" t="n">
-        <v>499.6357322609119</v>
+        <v>520.16365263413</v>
       </c>
       <c r="V37" t="n">
-        <v>393.1558903692359</v>
+        <v>413.6838107424539</v>
       </c>
       <c r="W37" t="n">
-        <v>261.2549514365363</v>
+        <v>281.7828718097544</v>
       </c>
       <c r="X37" t="n">
-        <v>184.2579498818134</v>
+        <v>204.7858702550315</v>
       </c>
       <c r="Y37" t="n">
-        <v>116.4782536239918</v>
+        <v>137.0061739972099</v>
       </c>
     </row>
     <row r="38">
@@ -7172,13 +7172,13 @@
         <v>54.44409525702108</v>
       </c>
       <c r="J38" t="n">
-        <v>171.5854136416051</v>
+        <v>171.585413641605</v>
       </c>
       <c r="K38" t="n">
         <v>479.3831020229595</v>
       </c>
       <c r="L38" t="n">
-        <v>911.2033586925768</v>
+        <v>911.2033586925763</v>
       </c>
       <c r="M38" t="n">
         <v>1397.83625545427</v>
@@ -7236,10 +7236,10 @@
         <v>620.1228834449387</v>
       </c>
       <c r="E39" t="n">
-        <v>473.0948735018098</v>
+        <v>473.09487350181</v>
       </c>
       <c r="F39" t="n">
-        <v>338.4010754516842</v>
+        <v>338.4010754516843</v>
       </c>
       <c r="G39" t="n">
         <v>209.9629353057399</v>
@@ -7263,13 +7263,13 @@
         <v>1314.640469364362</v>
       </c>
       <c r="N39" t="n">
-        <v>1899.921064862737</v>
+        <v>1524.941614805928</v>
       </c>
       <c r="O39" t="n">
-        <v>2359.830234331172</v>
+        <v>1984.850784274362</v>
       </c>
       <c r="P39" t="n">
-        <v>2535.387551240124</v>
+        <v>2341.289320894362</v>
       </c>
       <c r="Q39" t="n">
         <v>2535.387551240124</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.17834748951333</v>
+        <v>89.55269603976271</v>
       </c>
       <c r="C40" t="n">
-        <v>71.81784050109491</v>
+        <v>74.19218905134429</v>
       </c>
       <c r="D40" t="n">
-        <v>71.81784050109491</v>
+        <v>74.19218905134429</v>
       </c>
       <c r="E40" t="n">
-        <v>71.81784050109491</v>
+        <v>74.19218905134429</v>
       </c>
       <c r="F40" t="n">
-        <v>71.81784050109491</v>
+        <v>74.19218905134429</v>
       </c>
       <c r="G40" t="n">
-        <v>57.39698234714581</v>
+        <v>59.77133089739518</v>
       </c>
       <c r="H40" t="n">
-        <v>54.44409525702108</v>
+        <v>56.81844380727044</v>
       </c>
       <c r="I40" t="n">
-        <v>54.44409525702108</v>
+        <v>56.81844380727044</v>
       </c>
       <c r="J40" t="n">
         <v>54.44409525702108</v>
@@ -7342,40 +7342,40 @@
         <v>407.2379306735168</v>
       </c>
       <c r="N40" t="n">
-        <v>562.170087268187</v>
+        <v>562.1700872681869</v>
       </c>
       <c r="O40" t="n">
-        <v>694.3564570580693</v>
+        <v>694.3564570580692</v>
       </c>
       <c r="P40" t="n">
-        <v>786.1805563448602</v>
+        <v>786.1805563448601</v>
       </c>
       <c r="Q40" t="n">
-        <v>786.1805563448602</v>
+        <v>768.0269845218918</v>
       </c>
       <c r="R40" t="n">
-        <v>786.1805563448602</v>
+        <v>768.0269845218918</v>
       </c>
       <c r="S40" t="n">
-        <v>710.4406208211435</v>
+        <v>712.8149693713929</v>
       </c>
       <c r="T40" t="n">
-        <v>632.5572313349129</v>
+        <v>634.9315798851623</v>
       </c>
       <c r="U40" t="n">
-        <v>499.6357322609122</v>
+        <v>502.0100808111616</v>
       </c>
       <c r="V40" t="n">
-        <v>393.1558903692361</v>
+        <v>395.5302389194854</v>
       </c>
       <c r="W40" t="n">
-        <v>261.2549514365365</v>
+        <v>263.6292999867858</v>
       </c>
       <c r="X40" t="n">
-        <v>184.2579498818135</v>
+        <v>186.6322984320629</v>
       </c>
       <c r="Y40" t="n">
-        <v>116.4782536239919</v>
+        <v>118.8526021742413</v>
       </c>
     </row>
     <row r="41">
@@ -7385,55 +7385,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1435.430804289739</v>
+        <v>1435.43080428974</v>
       </c>
       <c r="C41" t="n">
         <v>1207.752508172448</v>
       </c>
       <c r="D41" t="n">
-        <v>989.1840059495723</v>
+        <v>989.1840059495735</v>
       </c>
       <c r="E41" t="n">
-        <v>748.6537486055809</v>
+        <v>748.6537486055817</v>
       </c>
       <c r="F41" t="n">
-        <v>488.7580204656529</v>
+        <v>488.7580204656533</v>
       </c>
       <c r="G41" t="n">
-        <v>227.452177278377</v>
+        <v>227.4521772783768</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44409525702108</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44409525702108</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J41" t="n">
-        <v>171.585413641605</v>
+        <v>171.5854136416049</v>
       </c>
       <c r="K41" t="n">
-        <v>479.3831020229596</v>
+        <v>479.3831020229595</v>
       </c>
       <c r="L41" t="n">
-        <v>911.2033586925766</v>
+        <v>911.2033586925763</v>
       </c>
       <c r="M41" t="n">
         <v>1397.83625545427</v>
       </c>
       <c r="N41" t="n">
-        <v>1871.07255285036</v>
+        <v>1871.072552850359</v>
       </c>
       <c r="O41" t="n">
-        <v>2265.693179758292</v>
+        <v>2265.693179758291</v>
       </c>
       <c r="P41" t="n">
-        <v>2570.335295092283</v>
+        <v>2570.335295092282</v>
       </c>
       <c r="Q41" t="n">
-        <v>2722.204762851054</v>
+        <v>2722.204762851053</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.204762851054</v>
+        <v>2722.204762851053</v>
       </c>
       <c r="S41" t="n">
         <v>2701.59758895808</v>
@@ -7445,13 +7445,13 @@
         <v>2533.283231207378</v>
       </c>
       <c r="V41" t="n">
-        <v>2350.55941965322</v>
+        <v>2350.559419653221</v>
       </c>
       <c r="W41" t="n">
         <v>2142.279952060723</v>
       </c>
       <c r="X41" t="n">
-        <v>1914.505274132117</v>
+        <v>1914.505274132118</v>
       </c>
       <c r="Y41" t="n">
         <v>1675.218881257857</v>
@@ -7485,19 +7485,19 @@
         <v>112.8293425338325</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44409525702108</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J42" t="n">
-        <v>54.44409525702108</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="K42" t="n">
-        <v>149.0071270074706</v>
+        <v>329.8883467185182</v>
       </c>
       <c r="L42" t="n">
-        <v>576.6193913890722</v>
+        <v>757.5006111001198</v>
       </c>
       <c r="M42" t="n">
-        <v>1133.759249653314</v>
+        <v>1314.640469364362</v>
       </c>
       <c r="N42" t="n">
         <v>1719.039845151689</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.17834748951324</v>
+        <v>107.7062678627318</v>
       </c>
       <c r="C43" t="n">
-        <v>71.81784050109485</v>
+        <v>92.34576087431354</v>
       </c>
       <c r="D43" t="n">
-        <v>71.81784050109485</v>
+        <v>92.34576087431354</v>
       </c>
       <c r="E43" t="n">
-        <v>71.81784050109485</v>
+        <v>92.34576087431354</v>
       </c>
       <c r="F43" t="n">
-        <v>71.81784050109485</v>
+        <v>71.81784050109468</v>
       </c>
       <c r="G43" t="n">
-        <v>57.39698234714578</v>
+        <v>57.39698234714568</v>
       </c>
       <c r="H43" t="n">
-        <v>54.44409525702108</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44409525702108</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="J43" t="n">
-        <v>54.44409525702108</v>
+        <v>54.44409525702106</v>
       </c>
       <c r="K43" t="n">
         <v>115.7673725115553</v>
       </c>
       <c r="L43" t="n">
-        <v>251.845343135974</v>
+        <v>251.8453431359739</v>
       </c>
       <c r="M43" t="n">
         <v>407.2379306735168</v>
       </c>
       <c r="N43" t="n">
-        <v>562.170087268187</v>
+        <v>562.1700872681869</v>
       </c>
       <c r="O43" t="n">
-        <v>694.3564570580693</v>
+        <v>694.3564570580692</v>
       </c>
       <c r="P43" t="n">
-        <v>786.1805563448602</v>
+        <v>786.1805563448601</v>
       </c>
       <c r="Q43" t="n">
-        <v>786.1805563448602</v>
+        <v>786.1805563448601</v>
       </c>
       <c r="R43" t="n">
-        <v>786.1805563448602</v>
+        <v>786.1805563448601</v>
       </c>
       <c r="S43" t="n">
-        <v>730.9685411943614</v>
+        <v>730.9685411943613</v>
       </c>
       <c r="T43" t="n">
         <v>653.0851517081308</v>
       </c>
       <c r="U43" t="n">
-        <v>499.6357322609119</v>
+        <v>520.1636526341301</v>
       </c>
       <c r="V43" t="n">
-        <v>393.1558903692359</v>
+        <v>413.6838107424541</v>
       </c>
       <c r="W43" t="n">
-        <v>261.2549514365363</v>
+        <v>281.7828718097546</v>
       </c>
       <c r="X43" t="n">
-        <v>184.2579498818134</v>
+        <v>204.7858702550318</v>
       </c>
       <c r="Y43" t="n">
-        <v>116.4782536239918</v>
+        <v>137.0061739972103</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1435.430804289739</v>
+        <v>1435.43080428974</v>
       </c>
       <c r="C44" t="n">
         <v>1207.752508172448</v>
       </c>
       <c r="D44" t="n">
-        <v>989.1840059495726</v>
+        <v>989.184005949573</v>
       </c>
       <c r="E44" t="n">
-        <v>748.6537486055807</v>
+        <v>748.6537486055811</v>
       </c>
       <c r="F44" t="n">
-        <v>488.7580204656524</v>
+        <v>488.7580204656529</v>
       </c>
       <c r="G44" t="n">
-        <v>227.452177278377</v>
+        <v>227.4521772783768</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44409525702108</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44409525702108</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="J44" t="n">
-        <v>171.585413641605</v>
+        <v>171.5854136416049</v>
       </c>
       <c r="K44" t="n">
-        <v>479.3831020229596</v>
+        <v>479.3831020229595</v>
       </c>
       <c r="L44" t="n">
         <v>911.2033586925763</v>
@@ -7670,10 +7670,10 @@
         <v>2722.204762851054</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.204762851054</v>
+        <v>2722.204762851053</v>
       </c>
       <c r="S44" t="n">
-        <v>2701.59758895808</v>
+        <v>2701.597588958079</v>
       </c>
       <c r="T44" t="n">
         <v>2633.869690478792</v>
@@ -7722,28 +7722,28 @@
         <v>112.8293425338325</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44409525702108</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="J45" t="n">
-        <v>54.44409525702108</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="K45" t="n">
-        <v>329.8883467185183</v>
+        <v>329.8883467185182</v>
       </c>
       <c r="L45" t="n">
         <v>757.5006111001198</v>
       </c>
       <c r="M45" t="n">
-        <v>1314.640469364362</v>
+        <v>939.6610193075525</v>
       </c>
       <c r="N45" t="n">
-        <v>1899.921064862737</v>
+        <v>1524.941614805928</v>
       </c>
       <c r="O45" t="n">
-        <v>2359.830234331172</v>
+        <v>1984.850784274362</v>
       </c>
       <c r="P45" t="n">
-        <v>2535.387551240124</v>
+        <v>2341.289320894362</v>
       </c>
       <c r="Q45" t="n">
         <v>2535.387551240124</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.17834748951324</v>
+        <v>87.17834748951297</v>
       </c>
       <c r="C46" t="n">
-        <v>71.81784050109485</v>
+        <v>71.81784050109466</v>
       </c>
       <c r="D46" t="n">
-        <v>71.81784050109485</v>
+        <v>71.81784050109466</v>
       </c>
       <c r="E46" t="n">
-        <v>71.81784050109485</v>
+        <v>71.81784050109466</v>
       </c>
       <c r="F46" t="n">
-        <v>71.81784050109485</v>
+        <v>71.81784050109466</v>
       </c>
       <c r="G46" t="n">
-        <v>57.39698234714578</v>
+        <v>57.39698234714567</v>
       </c>
       <c r="H46" t="n">
-        <v>54.44409525702108</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44409525702108</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="J46" t="n">
-        <v>54.44409525702108</v>
+        <v>54.44409525702105</v>
       </c>
       <c r="K46" t="n">
         <v>115.7673725115553</v>
       </c>
       <c r="L46" t="n">
-        <v>251.845343135974</v>
+        <v>251.8453431359739</v>
       </c>
       <c r="M46" t="n">
         <v>407.2379306735168</v>
       </c>
       <c r="N46" t="n">
-        <v>562.170087268187</v>
+        <v>562.1700872681869</v>
       </c>
       <c r="O46" t="n">
-        <v>694.3564570580693</v>
+        <v>694.3564570580692</v>
       </c>
       <c r="P46" t="n">
-        <v>786.1805563448602</v>
+        <v>786.1805563448601</v>
       </c>
       <c r="Q46" t="n">
-        <v>786.1805563448602</v>
+        <v>786.1805563448601</v>
       </c>
       <c r="R46" t="n">
-        <v>786.1805563448602</v>
+        <v>786.1805563448601</v>
       </c>
       <c r="S46" t="n">
-        <v>730.9685411943614</v>
+        <v>730.9685411943613</v>
       </c>
       <c r="T46" t="n">
-        <v>632.5572313349126</v>
+        <v>653.0851517081308</v>
       </c>
       <c r="U46" t="n">
-        <v>499.6357322609119</v>
+        <v>520.1636526341301</v>
       </c>
       <c r="V46" t="n">
-        <v>393.1558903692359</v>
+        <v>413.6838107424541</v>
       </c>
       <c r="W46" t="n">
-        <v>261.2549514365363</v>
+        <v>281.7828718097546</v>
       </c>
       <c r="X46" t="n">
-        <v>184.2579498818134</v>
+        <v>204.7858702550318</v>
       </c>
       <c r="Y46" t="n">
-        <v>116.4782536239918</v>
+        <v>116.4782536239914</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.109476210864</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K8" t="n">
         <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
-        <v>191.5602121631146</v>
+        <v>201.165459480069</v>
       </c>
       <c r="M8" t="n">
         <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
-        <v>186.3981141722301</v>
+        <v>196.4077929551615</v>
       </c>
       <c r="O8" t="n">
-        <v>196.5600440970748</v>
+        <v>196.9644755630518</v>
       </c>
       <c r="P8" t="n">
         <v>197.8864878340879</v>
       </c>
       <c r="Q8" t="n">
-        <v>190.6330518059216</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8532,10 +8532,10 @@
         <v>113.0652504495981</v>
       </c>
       <c r="K9" t="n">
-        <v>122.005847949598</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>122.5851123540791</v>
       </c>
       <c r="M9" t="n">
         <v>125.4935813445713</v>
@@ -8611,22 +8611,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>114.8329510464913</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L10" t="n">
         <v>119.6034782614375</v>
       </c>
       <c r="M10" t="n">
-        <v>122.4824467743834</v>
+        <v>122.8868782403605</v>
       </c>
       <c r="N10" t="n">
-        <v>103.744504878002</v>
+        <v>113.3497521949563</v>
       </c>
       <c r="O10" t="n">
-        <v>112.4959374921223</v>
+        <v>122.5056162750536</v>
       </c>
       <c r="P10" t="n">
-        <v>121.9136820728638</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q10" t="n">
         <v>84.9458458910769</v>
@@ -8699,16 +8699,16 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N11" t="n">
-        <v>379.846747583126</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O11" t="n">
-        <v>495.0402356415689</v>
+        <v>459.7394842757536</v>
       </c>
       <c r="P11" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>276.0094878578761</v>
+        <v>122.6059850712385</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,19 +8766,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>75.89726156362397</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>65.57829148857726</v>
       </c>
       <c r="L12" t="n">
-        <v>50.16086871106094</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>588.2884611816446</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>172.559869414876</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.5010356988637</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
@@ -8939,13 +8939,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O14" t="n">
-        <v>495.0402356415689</v>
+        <v>459.7394842757536</v>
       </c>
       <c r="P14" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>205.6297977302553</v>
+        <v>122.6059850712385</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>352.4156995292798</v>
+        <v>156.3568809982074</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>77.04165552553147</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>101.5010356988637</v>
+        <v>184.5248483578806</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9182,7 +9182,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>205.6297977302553</v>
+        <v>122.6059850712385</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9240,16 +9240,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>75.89726156362397</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8048081163522</v>
+        <v>65.57829148857726</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>138.6283772265878</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
         <v>623.1450866466196</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>172.5598694148746</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9407,7 +9407,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>395.6633393882289</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
@@ -9416,10 +9416,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
-        <v>418.3383206229274</v>
+        <v>383.0375692571121</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578761</v>
+        <v>122.6059850712385</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>75.89726156362397</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9489,16 +9489,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>156.3568809982087</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>414.0015992319183</v>
+        <v>53.96267335313112</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>254.3722786658867</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.8255997236959</v>
+        <v>101.5010356988637</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
@@ -9653,10 +9653,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
-        <v>229.6340664704733</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>276.0094878578761</v>
+        <v>205.6297977302549</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>75.89726156362396</v>
+        <v>75.89726156362397</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9729,13 +9729,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
-        <v>133.2538937902436</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>231.2932964934863</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>77.0416555255315</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,10 +9951,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>75.89726156362396</v>
+        <v>75.89726156362397</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>161.0965053779206</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>440.4367839081872</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>77.04165552553147</v>
+        <v>77.0416555255315</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,10 +10188,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>75.89726156362391</v>
+        <v>75.89726156362397</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>65.57829148857726</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>440.4367839081864</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>77.04165552553141</v>
+        <v>172.5598694148746</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>75.89726156362396</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>440.4367839081876</v>
+        <v>156.3568809982078</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10446,7 +10446,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>77.04165552553147</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10662,10 +10662,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>75.89726156362396</v>
+        <v>75.89726156362397</v>
       </c>
       <c r="K36" t="n">
-        <v>325.0766127256351</v>
+        <v>161.0965053779203</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10680,10 +10680,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>53.96267335313108</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>77.0416555255315</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>75.89726156362396</v>
+        <v>75.89726156362397</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -10911,16 +10911,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>244.377965377115</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>231.2932964934863</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>77.04165552553147</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11069,7 +11069,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N41" t="n">
-        <v>568.5510017355793</v>
+        <v>568.5510017355789</v>
       </c>
       <c r="O41" t="n">
         <v>495.0402356415689</v>
@@ -11136,10 +11136,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>75.89726156362396</v>
+        <v>75.89726156362397</v>
       </c>
       <c r="K42" t="n">
-        <v>161.0965053779202</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>440.4367839081875</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>77.04165552553147</v>
+        <v>77.0416555255315</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11300,7 +11300,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>542.9595789155853</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
         <v>584.3675935406823</v>
@@ -11373,7 +11373,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>75.89726156362396</v>
+        <v>75.89726156362397</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -11382,7 +11382,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>226.6494616054955</v>
       </c>
       <c r="N45" t="n">
         <v>623.1450866466196</v>
@@ -11391,10 +11391,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>231.2932964934863</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>77.04165552553147</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>59.35980417361569</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>280.539192233484</v>
+        <v>87.13380565441601</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>302.2813298033895</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>321.4531458913667</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>163.7369697115373</v>
       </c>
       <c r="V11" t="n">
-        <v>245.0529484714534</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>270.3530479494103</v>
       </c>
       <c r="X11" t="n">
-        <v>289.6533061821569</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>46.95714478044762</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>91.44422582378562</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>194.7383045762102</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>138.4013706042329</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>301.5465712312742</v>
       </c>
       <c r="C14" t="n">
         <v>289.557888188956</v>
       </c>
       <c r="D14" t="n">
-        <v>280.539192233484</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>302.2813298033895</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>251.5725097864997</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>59.45522216681613</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>245.0529484714534</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>270.3530479494103</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>93.16328210597132</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>79.3632769513718</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>62.98464134895019</v>
       </c>
       <c r="E16" t="n">
-        <v>61.93239120472967</v>
+        <v>2.037250113830295</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>46.9571447804476</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.6340798798721</v>
+        <v>48.63407987987208</v>
       </c>
       <c r="S16" t="n">
-        <v>118.8162700318315</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>103.7569340640104</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>976136.6585098903</v>
+        <v>976136.6585098904</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>976136.6585098903</v>
+        <v>976136.6585098907</v>
       </c>
     </row>
     <row r="7">
@@ -26314,46 +26314,46 @@
         <v>382938.3157536522</v>
       </c>
       <c r="C2" t="n">
-        <v>382938.3157536523</v>
+        <v>382938.3157536521</v>
       </c>
       <c r="D2" t="n">
-        <v>383735.0861847737</v>
+        <v>383735.0861847736</v>
       </c>
       <c r="E2" t="n">
+        <v>334245.0138443226</v>
+      </c>
+      <c r="F2" t="n">
         <v>334245.0138443228</v>
-      </c>
-      <c r="F2" t="n">
-        <v>334245.0138443227</v>
       </c>
       <c r="G2" t="n">
         <v>383812.0302470906</v>
       </c>
       <c r="H2" t="n">
-        <v>383812.0302470907</v>
+        <v>383812.0302470906</v>
       </c>
       <c r="I2" t="n">
         <v>383812.0302470906</v>
       </c>
       <c r="J2" t="n">
-        <v>383812.0302470903</v>
+        <v>383812.0302470904</v>
       </c>
       <c r="K2" t="n">
-        <v>383812.0302470903</v>
+        <v>383812.0302470904</v>
       </c>
       <c r="L2" t="n">
-        <v>383812.0302470909</v>
+        <v>383812.0302470911</v>
       </c>
       <c r="M2" t="n">
-        <v>383812.0302470911</v>
+        <v>383812.030247091</v>
       </c>
       <c r="N2" t="n">
-        <v>383812.0302470911</v>
+        <v>383812.0302470912</v>
       </c>
       <c r="O2" t="n">
         <v>383812.0302470911</v>
       </c>
       <c r="P2" t="n">
-        <v>383812.0302470911</v>
+        <v>383812.0302470913</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61893.6165688312</v>
+        <v>61893.61656883118</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83192.20727529821</v>
+        <v>83192.20727529823</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63965.37984460723</v>
+        <v>63965.37984460716</v>
       </c>
       <c r="M3" t="n">
         <v>147607.1236882954</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20130.41834750245</v>
+        <v>20130.41834750254</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>392532.9083931244</v>
       </c>
       <c r="D4" t="n">
-        <v>392094.6976652483</v>
+        <v>392094.6976652482</v>
       </c>
       <c r="E4" t="n">
         <v>233041.0899190961</v>
@@ -26430,19 +26430,19 @@
         <v>233041.0899190961</v>
       </c>
       <c r="G4" t="n">
-        <v>289423.5411035394</v>
+        <v>289423.5411035395</v>
       </c>
       <c r="H4" t="n">
         <v>289423.5411035395</v>
       </c>
       <c r="I4" t="n">
-        <v>289423.5411035395</v>
+        <v>289423.5411035394</v>
       </c>
       <c r="J4" t="n">
-        <v>286943.1884001512</v>
+        <v>286943.1884001513</v>
       </c>
       <c r="K4" t="n">
-        <v>286943.1884001511</v>
+        <v>286943.1884001513</v>
       </c>
       <c r="L4" t="n">
         <v>286889.5755224865</v>
@@ -26451,7 +26451,7 @@
         <v>285925.0507832417</v>
       </c>
       <c r="N4" t="n">
-        <v>285925.0507832416</v>
+        <v>285925.0507832417</v>
       </c>
       <c r="O4" t="n">
         <v>285925.0507832417</v>
@@ -26491,10 +26491,10 @@
         <v>55342.36067658162</v>
       </c>
       <c r="J5" t="n">
-        <v>64667.02949573724</v>
+        <v>64667.02949573723</v>
       </c>
       <c r="K5" t="n">
-        <v>64667.02949573724</v>
+        <v>64667.02949573725</v>
       </c>
       <c r="L5" t="n">
         <v>64276.15485927403</v>
@@ -26509,7 +26509,7 @@
         <v>57129.32798310797</v>
       </c>
       <c r="P5" t="n">
-        <v>57129.32798310797</v>
+        <v>57129.32798310796</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-43222.19263947216</v>
+        <v>-43226.56121193936</v>
       </c>
       <c r="C6" t="n">
-        <v>-43222.19263947204</v>
+        <v>-43226.56121193947</v>
       </c>
       <c r="D6" t="n">
-        <v>-45705.10647081877</v>
+        <v>-45705.49119113042</v>
       </c>
       <c r="E6" t="n">
-        <v>-311827.3014695778</v>
+        <v>-312075.1365515919</v>
       </c>
       <c r="F6" t="n">
-        <v>52365.73131280132</v>
+        <v>52117.8962307875</v>
       </c>
       <c r="G6" t="n">
-        <v>-22847.48810186162</v>
+        <v>-22847.48810186174</v>
       </c>
       <c r="H6" t="n">
-        <v>39046.12846696964</v>
+        <v>39046.12846696952</v>
       </c>
       <c r="I6" t="n">
-        <v>39046.12846696947</v>
+        <v>39046.12846696953</v>
       </c>
       <c r="J6" t="n">
-        <v>-50990.39492409631</v>
+        <v>-50990.39492409636</v>
       </c>
       <c r="K6" t="n">
-        <v>32201.81235120188</v>
+        <v>32201.81235120193</v>
       </c>
       <c r="L6" t="n">
-        <v>-31319.07997927685</v>
+        <v>-31319.07997927656</v>
       </c>
       <c r="M6" t="n">
-        <v>-106849.4722075539</v>
+        <v>-106849.4722075541</v>
       </c>
       <c r="N6" t="n">
-        <v>40757.65148074148</v>
+        <v>40757.6514807416</v>
       </c>
       <c r="O6" t="n">
-        <v>20627.23313323894</v>
+        <v>20627.23313323883</v>
       </c>
       <c r="P6" t="n">
-        <v>40757.65148074142</v>
+        <v>40757.65148074154</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="F2" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="G2" t="n">
         <v>165.9235536026037</v>
@@ -26713,7 +26713,7 @@
         <v>102.530043645417</v>
       </c>
       <c r="L2" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="M2" t="n">
         <v>152.7129079244023</v>
@@ -26722,10 +26722,10 @@
         <v>152.7129079244023</v>
       </c>
       <c r="O2" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="P2" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133.6419326364853</v>
+        <v>133.6419326364852</v>
       </c>
       <c r="F3" t="n">
-        <v>133.6419326364853</v>
+        <v>133.6419326364852</v>
       </c>
       <c r="G3" t="n">
-        <v>133.6419326364853</v>
+        <v>133.6419326364852</v>
       </c>
       <c r="H3" t="n">
-        <v>133.6419326364853</v>
+        <v>133.6419326364852</v>
       </c>
       <c r="I3" t="n">
-        <v>133.6419326364853</v>
+        <v>133.6419326364852</v>
       </c>
       <c r="J3" t="n">
-        <v>133.6419326364853</v>
+        <v>133.6419326364852</v>
       </c>
       <c r="K3" t="n">
-        <v>133.6419326364855</v>
+        <v>133.6419326364852</v>
       </c>
       <c r="L3" t="n">
-        <v>133.6419326364853</v>
+        <v>133.6419326364852</v>
       </c>
       <c r="M3" t="n">
-        <v>133.6419326364853</v>
+        <v>133.6419326364852</v>
       </c>
       <c r="N3" t="n">
-        <v>133.6419326364853</v>
+        <v>133.6419326364852</v>
       </c>
       <c r="O3" t="n">
-        <v>133.6419326364853</v>
+        <v>133.6419326364852</v>
       </c>
       <c r="P3" t="n">
-        <v>133.6419326364853</v>
+        <v>133.6419326364852</v>
       </c>
     </row>
     <row r="4">
@@ -26814,22 +26814,22 @@
         <v>873.9150842933436</v>
       </c>
       <c r="K4" t="n">
-        <v>873.9150842933436</v>
+        <v>873.9150842933439</v>
       </c>
       <c r="L4" t="n">
-        <v>863.9054055104123</v>
+        <v>863.9054055104125</v>
       </c>
       <c r="M4" t="n">
-        <v>680.5511907127635</v>
+        <v>680.5511907127634</v>
       </c>
       <c r="N4" t="n">
         <v>680.5511907127634</v>
       </c>
       <c r="O4" t="n">
-        <v>680.5511907127634</v>
+        <v>680.5511907127633</v>
       </c>
       <c r="P4" t="n">
-        <v>680.5511907127634</v>
+        <v>680.5511907127632</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>77.367020711039</v>
+        <v>77.36702071103898</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.16302293437803</v>
+        <v>25.16302293437806</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.95672480575904</v>
+        <v>79.95672480575895</v>
       </c>
       <c r="M2" t="n">
-        <v>47.59316018426522</v>
+        <v>47.5931601842653</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.16302293437806</v>
+        <v>25.16302293437818</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133.6419326364853</v>
+        <v>133.6419326364852</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>439.5298451906199</v>
+        <v>439.5298451906195</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>77.367020711039</v>
+        <v>77.36702071103898</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.16302293437803</v>
+        <v>25.16302293437806</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>80.91537856709924</v>
+        <v>79.72222485617382</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
@@ -27913,10 +27913,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>348.8999020580436</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>369.3933140017156</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27932,7 +27932,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>150.0769572485235</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
@@ -27941,16 +27941,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>123.337181286693</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>117.4315361940169</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>90.12195380676299</v>
       </c>
       <c r="I9" t="n">
-        <v>57.68878367390825</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,16 +27983,16 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>176.7885740127433</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>216.101987543218</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>230.0861850070171</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -28011,10 +28011,10 @@
         <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>157.9101310600051</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>142.724649168509</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
         <v>150.4889240962943</v>
@@ -28032,7 +28032,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>49.44698741703764</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>28.14228914991649</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>138.0168847888342</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>220.8374848695466</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>275.5018120437852</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="C11" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="D11" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="E11" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="F11" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="G11" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="H11" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="I11" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.98362202713886</v>
+        <v>55.98362202713889</v>
       </c>
       <c r="S11" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="T11" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="U11" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="V11" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="W11" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="X11" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="C13" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="D13" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="E13" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="F13" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="G13" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="H13" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="I13" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="J13" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="K13" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="L13" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="M13" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="N13" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="O13" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="P13" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="R13" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="S13" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="T13" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="U13" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="V13" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="W13" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="X13" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="C14" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="D14" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="E14" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="F14" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="G14" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="H14" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="I14" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.98362202713886</v>
+        <v>55.98362202713889</v>
       </c>
       <c r="S14" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="T14" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="U14" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="V14" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="W14" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="X14" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="C16" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="D16" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="E16" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="F16" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="G16" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="H16" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="I16" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="J16" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="K16" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="L16" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="M16" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="N16" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="O16" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="P16" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="R16" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="S16" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="T16" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="U16" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="V16" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="W16" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="X16" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.55653289156467</v>
+        <v>88.5565328915647</v>
       </c>
     </row>
     <row r="17">
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.98362202713886</v>
+        <v>55.98362202713889</v>
       </c>
       <c r="S17" t="n">
         <v>165.9235536026037</v>
@@ -28743,7 +28743,7 @@
         <v>135.5136776720123</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>42.41841521449449</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,13 +28764,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>17.97203610473859</v>
       </c>
       <c r="R19" t="n">
-        <v>42.22860791994664</v>
+        <v>137.1906127714368</v>
       </c>
       <c r="S19" t="n">
-        <v>165.9235536026037</v>
+        <v>10.57109743188053</v>
       </c>
       <c r="T19" t="n">
         <v>165.9235536026037</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.98362202713886</v>
+        <v>55.98362202713889</v>
       </c>
       <c r="S20" t="n">
         <v>165.9235536026037</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>165.9235536026037</v>
+        <v>52.98951264637503</v>
       </c>
       <c r="H22" t="n">
         <v>155.6362661436258</v>
@@ -28980,7 +28980,7 @@
         <v>135.5136776720123</v>
       </c>
       <c r="J22" t="n">
-        <v>42.41841521449447</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,13 +29001,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>17.97203610473859</v>
       </c>
       <c r="R22" t="n">
         <v>137.1906127714368</v>
       </c>
       <c r="S22" t="n">
-        <v>28.54313353661902</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="T22" t="n">
         <v>165.9235536026037</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.98362202713886</v>
+        <v>55.98362202713889</v>
       </c>
       <c r="S23" t="n">
         <v>165.9235536026037</v>
@@ -29217,7 +29217,7 @@
         <v>135.5136776720123</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>42.41841521449449</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.97203610473857</v>
+        <v>17.97203610473859</v>
       </c>
       <c r="R25" t="n">
         <v>137.1906127714368</v>
@@ -29256,13 +29256,13 @@
         <v>165.9235536026037</v>
       </c>
       <c r="W25" t="n">
-        <v>52.989512646375</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="X25" t="n">
         <v>165.9235536026037</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.9235536026037</v>
+        <v>10.57109743188056</v>
       </c>
     </row>
     <row r="26">
@@ -29296,13 +29296,13 @@
         <v>102.530043645417</v>
       </c>
       <c r="J26" t="n">
-        <v>102.530043645417</v>
+        <v>1.386164617211662</v>
       </c>
       <c r="K26" t="n">
         <v>102.530043645417</v>
       </c>
       <c r="L26" t="n">
-        <v>1.386164617211534</v>
+        <v>102.530043645417</v>
       </c>
       <c r="M26" t="n">
         <v>102.530043645417</v>
@@ -29457,7 +29457,7 @@
         <v>102.530043645417</v>
       </c>
       <c r="K28" t="n">
-        <v>102.5300436454171</v>
+        <v>102.530043645417</v>
       </c>
       <c r="L28" t="n">
         <v>102.530043645417</v>
@@ -29536,10 +29536,10 @@
         <v>102.530043645417</v>
       </c>
       <c r="K29" t="n">
+        <v>1.386164617212557</v>
+      </c>
+      <c r="L29" t="n">
         <v>102.530043645417</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.386164617209886</v>
       </c>
       <c r="M29" t="n">
         <v>102.530043645417</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="C32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="D32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="E32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="F32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="G32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="H32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="I32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="J32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="K32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="L32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="M32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="N32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>46.15399593384097</v>
       </c>
       <c r="P32" t="n">
-        <v>46.15399593383904</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="R32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="S32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="T32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="U32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="V32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="W32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="X32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="Y32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="C34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="D34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="E34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="F34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="G34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="H34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="I34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="J34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="K34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="L34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="M34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="N34" t="n">
-        <v>42.1255457389112</v>
+        <v>105.119747740137</v>
       </c>
       <c r="O34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="P34" t="n">
-        <v>105.1197477401371</v>
+        <v>42.12554573891265</v>
       </c>
       <c r="Q34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="R34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="S34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="T34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="U34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="V34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="W34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="X34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
       <c r="Y34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.119747740137</v>
       </c>
     </row>
     <row r="35">
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.98362202713886</v>
+        <v>55.98362202713889</v>
       </c>
       <c r="S35" t="n">
         <v>152.7129079244023</v>
@@ -30159,13 +30159,13 @@
         <v>152.7129079244023</v>
       </c>
       <c r="H37" t="n">
-        <v>152.7129079244023</v>
+        <v>132.3902667549162</v>
       </c>
       <c r="I37" t="n">
         <v>135.5136776720123</v>
       </c>
       <c r="J37" t="n">
-        <v>42.41841521449447</v>
+        <v>42.41841521449449</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>17.97203610473859</v>
       </c>
       <c r="R37" t="n">
         <v>137.1906127714368</v>
@@ -30195,7 +30195,7 @@
         <v>152.7129079244023</v>
       </c>
       <c r="T37" t="n">
-        <v>150.3623028596549</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="U37" t="n">
         <v>152.7129079244023</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.98362202713886</v>
+        <v>55.98362202713889</v>
       </c>
       <c r="S38" t="n">
         <v>152.7129079244023</v>
@@ -30402,7 +30402,7 @@
         <v>135.5136776720123</v>
       </c>
       <c r="J40" t="n">
-        <v>42.41841521449447</v>
+        <v>40.06781014974761</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,13 +30423,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.97203610473857</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>137.1906127714368</v>
       </c>
       <c r="S40" t="n">
-        <v>132.3902667549167</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="T40" t="n">
         <v>152.7129079244023</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="C41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="D41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="E41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="F41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="G41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="H41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="I41" t="n">
         <v>150.3765419471388</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.98362202713886</v>
+        <v>55.98362202713889</v>
       </c>
       <c r="S41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="T41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="U41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="V41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="W41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="X41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="Y41" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="C43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30627,19 +30627,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>130.633207254994</v>
       </c>
       <c r="G43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="H43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="I43" t="n">
         <v>135.5136776720123</v>
       </c>
       <c r="J43" t="n">
-        <v>42.41841521449447</v>
+        <v>42.41841521449449</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.97203610473857</v>
+        <v>17.97203610473859</v>
       </c>
       <c r="R43" t="n">
         <v>137.1906127714368</v>
       </c>
       <c r="S43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="T43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="U43" t="n">
-        <v>132.3902667549163</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="V43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="W43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="X43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="Y43" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="C44" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="D44" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="E44" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="F44" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="G44" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="H44" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="I44" t="n">
         <v>150.3765419471388</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.98362202713886</v>
+        <v>55.98362202713798</v>
       </c>
       <c r="S44" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="T44" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="U44" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="V44" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="W44" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="X44" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="Y44" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="C46" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,16 +30867,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="H46" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="I46" t="n">
         <v>135.5136776720123</v>
       </c>
       <c r="J46" t="n">
-        <v>42.41841521449447</v>
+        <v>42.41841521449449</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.97203610473857</v>
+        <v>17.97203610473859</v>
       </c>
       <c r="R46" t="n">
         <v>137.1906127714368</v>
       </c>
       <c r="S46" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="T46" t="n">
-        <v>132.3902667549163</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="U46" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="V46" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="W46" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="X46" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244024</v>
       </c>
       <c r="Y46" t="n">
-        <v>152.7129079244023</v>
+        <v>132.3902667549157</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5372540005486842</v>
+        <v>0.5372540005486839</v>
       </c>
       <c r="H11" t="n">
-        <v>5.502152533119214</v>
+        <v>5.502152533119211</v>
       </c>
       <c r="I11" t="n">
-        <v>20.71248485615317</v>
+        <v>20.71248485615316</v>
       </c>
       <c r="J11" t="n">
-        <v>45.59876172906893</v>
+        <v>45.5987617290689</v>
       </c>
       <c r="K11" t="n">
-        <v>68.34072357229475</v>
+        <v>68.34072357229471</v>
       </c>
       <c r="L11" t="n">
-        <v>84.78271069158656</v>
+        <v>84.7827106915865</v>
       </c>
       <c r="M11" t="n">
-        <v>94.33710152384423</v>
+        <v>94.33710152384415</v>
       </c>
       <c r="N11" t="n">
-        <v>95.86357445290318</v>
+        <v>95.86357445290312</v>
       </c>
       <c r="O11" t="n">
-        <v>90.52125498494719</v>
+        <v>90.52125498494713</v>
       </c>
       <c r="P11" t="n">
-        <v>77.25779684640153</v>
+        <v>77.25779684640149</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.01738795175176</v>
+        <v>58.01738795175173</v>
       </c>
       <c r="R11" t="n">
-        <v>33.74828161196632</v>
+        <v>33.7482816119663</v>
       </c>
       <c r="S11" t="n">
-        <v>12.24267553750316</v>
+        <v>12.24267553750315</v>
       </c>
       <c r="T11" t="n">
-        <v>2.351829387401867</v>
+        <v>2.351829387401865</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04298032004389473</v>
+        <v>0.0429803200438947</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2874562324633835</v>
+        <v>0.2874562324633833</v>
       </c>
       <c r="H12" t="n">
-        <v>2.776222034580573</v>
+        <v>2.776222034580571</v>
       </c>
       <c r="I12" t="n">
-        <v>9.89706765279632</v>
+        <v>9.897067652796313</v>
       </c>
       <c r="J12" t="n">
-        <v>27.15831010304274</v>
+        <v>27.15831010304272</v>
       </c>
       <c r="K12" t="n">
-        <v>46.41787767808943</v>
+        <v>46.4178776780894</v>
       </c>
       <c r="L12" t="n">
-        <v>62.41456486008685</v>
+        <v>62.41456486008681</v>
       </c>
       <c r="M12" t="n">
-        <v>72.83485328688448</v>
+        <v>72.83485328688444</v>
       </c>
       <c r="N12" t="n">
-        <v>74.76257512651833</v>
+        <v>74.76257512651829</v>
       </c>
       <c r="O12" t="n">
-        <v>68.39315018614546</v>
+        <v>68.39315018614542</v>
       </c>
       <c r="P12" t="n">
-        <v>54.89153267101224</v>
+        <v>54.89153267101221</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.69353591936103</v>
+        <v>36.693535919361</v>
       </c>
       <c r="R12" t="n">
-        <v>17.8475018717178</v>
+        <v>17.84750187171779</v>
       </c>
       <c r="S12" t="n">
-        <v>5.339373440712404</v>
+        <v>5.339373440712402</v>
       </c>
       <c r="T12" t="n">
-        <v>1.158650340499339</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01891159424101208</v>
+        <v>0.01891159424101207</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2409936490166128</v>
+        <v>0.2409936490166127</v>
       </c>
       <c r="H13" t="n">
-        <v>2.142652624893159</v>
+        <v>2.142652624893158</v>
       </c>
       <c r="I13" t="n">
-        <v>7.247336281335959</v>
+        <v>7.247336281335954</v>
       </c>
       <c r="J13" t="n">
-        <v>17.03825098547453</v>
+        <v>17.03825098547452</v>
       </c>
       <c r="K13" t="n">
-        <v>27.99908031302101</v>
+        <v>27.99908031302099</v>
       </c>
       <c r="L13" t="n">
-        <v>35.82918305470624</v>
+        <v>35.82918305470622</v>
       </c>
       <c r="M13" t="n">
-        <v>37.77684990903141</v>
+        <v>37.77684990903138</v>
       </c>
       <c r="N13" t="n">
-        <v>36.87860085360587</v>
+        <v>36.87860085360585</v>
       </c>
       <c r="O13" t="n">
-        <v>34.06335686282089</v>
+        <v>34.06335686282087</v>
       </c>
       <c r="P13" t="n">
-        <v>29.14708642288196</v>
+        <v>29.14708642288194</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.17993182810928</v>
+        <v>20.17993182810927</v>
       </c>
       <c r="R13" t="n">
-        <v>10.83595080032879</v>
+        <v>10.83595080032878</v>
       </c>
       <c r="S13" t="n">
-        <v>4.199862046953151</v>
+        <v>4.199862046953148</v>
       </c>
       <c r="T13" t="n">
-        <v>1.029700136707346</v>
+        <v>1.029700136707345</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0131451081281789</v>
+        <v>0.01314510812817889</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5372540005486842</v>
+        <v>0.5372540005486839</v>
       </c>
       <c r="H14" t="n">
-        <v>5.502152533119214</v>
+        <v>5.502152533119211</v>
       </c>
       <c r="I14" t="n">
-        <v>20.71248485615317</v>
+        <v>20.71248485615316</v>
       </c>
       <c r="J14" t="n">
-        <v>45.59876172906893</v>
+        <v>45.5987617290689</v>
       </c>
       <c r="K14" t="n">
-        <v>68.34072357229475</v>
+        <v>68.34072357229471</v>
       </c>
       <c r="L14" t="n">
-        <v>84.78271069158656</v>
+        <v>84.7827106915865</v>
       </c>
       <c r="M14" t="n">
-        <v>94.33710152384423</v>
+        <v>94.33710152384415</v>
       </c>
       <c r="N14" t="n">
-        <v>95.86357445290318</v>
+        <v>95.86357445290312</v>
       </c>
       <c r="O14" t="n">
-        <v>90.52125498494719</v>
+        <v>90.52125498494713</v>
       </c>
       <c r="P14" t="n">
-        <v>77.25779684640153</v>
+        <v>77.25779684640149</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.01738795175176</v>
+        <v>58.01738795175173</v>
       </c>
       <c r="R14" t="n">
-        <v>33.74828161196632</v>
+        <v>33.7482816119663</v>
       </c>
       <c r="S14" t="n">
-        <v>12.24267553750316</v>
+        <v>12.24267553750315</v>
       </c>
       <c r="T14" t="n">
-        <v>2.351829387401867</v>
+        <v>2.351829387401865</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04298032004389473</v>
+        <v>0.0429803200438947</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2874562324633835</v>
+        <v>0.2874562324633833</v>
       </c>
       <c r="H15" t="n">
-        <v>2.776222034580573</v>
+        <v>2.776222034580571</v>
       </c>
       <c r="I15" t="n">
-        <v>9.89706765279632</v>
+        <v>9.897067652796313</v>
       </c>
       <c r="J15" t="n">
-        <v>27.15831010304274</v>
+        <v>27.15831010304272</v>
       </c>
       <c r="K15" t="n">
-        <v>46.41787767808943</v>
+        <v>46.4178776780894</v>
       </c>
       <c r="L15" t="n">
-        <v>62.41456486008685</v>
+        <v>62.41456486008681</v>
       </c>
       <c r="M15" t="n">
-        <v>72.83485328688448</v>
+        <v>72.83485328688444</v>
       </c>
       <c r="N15" t="n">
-        <v>74.76257512651833</v>
+        <v>74.76257512651829</v>
       </c>
       <c r="O15" t="n">
-        <v>68.39315018614546</v>
+        <v>68.39315018614542</v>
       </c>
       <c r="P15" t="n">
-        <v>54.89153267101224</v>
+        <v>54.89153267101221</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.69353591936103</v>
+        <v>36.693535919361</v>
       </c>
       <c r="R15" t="n">
-        <v>17.8475018717178</v>
+        <v>17.84750187171779</v>
       </c>
       <c r="S15" t="n">
-        <v>5.339373440712404</v>
+        <v>5.339373440712402</v>
       </c>
       <c r="T15" t="n">
-        <v>1.158650340499339</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01891159424101208</v>
+        <v>0.01891159424101207</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2409936490166128</v>
+        <v>0.2409936490166127</v>
       </c>
       <c r="H16" t="n">
-        <v>2.142652624893159</v>
+        <v>2.142652624893158</v>
       </c>
       <c r="I16" t="n">
-        <v>7.247336281335959</v>
+        <v>7.247336281335954</v>
       </c>
       <c r="J16" t="n">
-        <v>17.03825098547453</v>
+        <v>17.03825098547452</v>
       </c>
       <c r="K16" t="n">
-        <v>27.99908031302101</v>
+        <v>27.99908031302099</v>
       </c>
       <c r="L16" t="n">
-        <v>35.82918305470624</v>
+        <v>35.82918305470622</v>
       </c>
       <c r="M16" t="n">
-        <v>37.77684990903141</v>
+        <v>37.77684990903138</v>
       </c>
       <c r="N16" t="n">
-        <v>36.87860085360587</v>
+        <v>36.87860085360585</v>
       </c>
       <c r="O16" t="n">
-        <v>34.06335686282089</v>
+        <v>34.06335686282087</v>
       </c>
       <c r="P16" t="n">
-        <v>29.14708642288196</v>
+        <v>29.14708642288194</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.17993182810928</v>
+        <v>20.17993182810927</v>
       </c>
       <c r="R16" t="n">
-        <v>10.83595080032879</v>
+        <v>10.83595080032878</v>
       </c>
       <c r="S16" t="n">
-        <v>4.199862046953151</v>
+        <v>4.199862046953148</v>
       </c>
       <c r="T16" t="n">
-        <v>1.029700136707346</v>
+        <v>1.029700136707345</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0131451081281789</v>
+        <v>0.01314510812817889</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5372540005486842</v>
+        <v>0.5372540005486839</v>
       </c>
       <c r="H17" t="n">
-        <v>5.502152533119214</v>
+        <v>5.502152533119211</v>
       </c>
       <c r="I17" t="n">
-        <v>20.71248485615317</v>
+        <v>20.71248485615316</v>
       </c>
       <c r="J17" t="n">
-        <v>45.59876172906893</v>
+        <v>45.5987617290689</v>
       </c>
       <c r="K17" t="n">
-        <v>68.34072357229475</v>
+        <v>68.34072357229471</v>
       </c>
       <c r="L17" t="n">
-        <v>84.78271069158656</v>
+        <v>84.7827106915865</v>
       </c>
       <c r="M17" t="n">
-        <v>94.33710152384423</v>
+        <v>94.33710152384415</v>
       </c>
       <c r="N17" t="n">
-        <v>95.86357445290318</v>
+        <v>95.86357445290312</v>
       </c>
       <c r="O17" t="n">
-        <v>90.52125498494719</v>
+        <v>90.52125498494713</v>
       </c>
       <c r="P17" t="n">
-        <v>77.25779684640153</v>
+        <v>77.25779684640149</v>
       </c>
       <c r="Q17" t="n">
-        <v>58.01738795175176</v>
+        <v>58.01738795175173</v>
       </c>
       <c r="R17" t="n">
-        <v>33.74828161196632</v>
+        <v>33.7482816119663</v>
       </c>
       <c r="S17" t="n">
-        <v>12.24267553750316</v>
+        <v>12.24267553750315</v>
       </c>
       <c r="T17" t="n">
-        <v>2.351829387401867</v>
+        <v>2.351829387401865</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04298032004389473</v>
+        <v>0.0429803200438947</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2874562324633835</v>
+        <v>0.2874562324633833</v>
       </c>
       <c r="H18" t="n">
-        <v>2.776222034580573</v>
+        <v>2.776222034580571</v>
       </c>
       <c r="I18" t="n">
-        <v>9.89706765279632</v>
+        <v>9.897067652796313</v>
       </c>
       <c r="J18" t="n">
-        <v>27.15831010304274</v>
+        <v>27.15831010304272</v>
       </c>
       <c r="K18" t="n">
-        <v>46.41787767808943</v>
+        <v>46.4178776780894</v>
       </c>
       <c r="L18" t="n">
-        <v>62.41456486008685</v>
+        <v>62.41456486008681</v>
       </c>
       <c r="M18" t="n">
-        <v>72.83485328688448</v>
+        <v>72.83485328688444</v>
       </c>
       <c r="N18" t="n">
-        <v>74.76257512651833</v>
+        <v>74.76257512651829</v>
       </c>
       <c r="O18" t="n">
-        <v>68.39315018614546</v>
+        <v>68.39315018614542</v>
       </c>
       <c r="P18" t="n">
-        <v>54.89153267101224</v>
+        <v>54.89153267101221</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.69353591936103</v>
+        <v>36.693535919361</v>
       </c>
       <c r="R18" t="n">
-        <v>17.8475018717178</v>
+        <v>17.84750187171779</v>
       </c>
       <c r="S18" t="n">
-        <v>5.339373440712404</v>
+        <v>5.339373440712402</v>
       </c>
       <c r="T18" t="n">
-        <v>1.158650340499339</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01891159424101208</v>
+        <v>0.01891159424101207</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2409936490166128</v>
+        <v>0.2409936490166127</v>
       </c>
       <c r="H19" t="n">
-        <v>2.142652624893159</v>
+        <v>2.142652624893158</v>
       </c>
       <c r="I19" t="n">
-        <v>7.247336281335959</v>
+        <v>7.247336281335954</v>
       </c>
       <c r="J19" t="n">
-        <v>17.03825098547453</v>
+        <v>17.03825098547452</v>
       </c>
       <c r="K19" t="n">
-        <v>27.99908031302101</v>
+        <v>27.99908031302099</v>
       </c>
       <c r="L19" t="n">
-        <v>35.82918305470624</v>
+        <v>35.82918305470622</v>
       </c>
       <c r="M19" t="n">
-        <v>37.77684990903141</v>
+        <v>37.77684990903138</v>
       </c>
       <c r="N19" t="n">
-        <v>36.87860085360587</v>
+        <v>36.87860085360585</v>
       </c>
       <c r="O19" t="n">
-        <v>34.06335686282089</v>
+        <v>34.06335686282087</v>
       </c>
       <c r="P19" t="n">
-        <v>29.14708642288196</v>
+        <v>29.14708642288194</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.17993182810928</v>
+        <v>20.17993182810927</v>
       </c>
       <c r="R19" t="n">
-        <v>10.83595080032879</v>
+        <v>10.83595080032878</v>
       </c>
       <c r="S19" t="n">
-        <v>4.199862046953151</v>
+        <v>4.199862046953148</v>
       </c>
       <c r="T19" t="n">
-        <v>1.029700136707346</v>
+        <v>1.029700136707345</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0131451081281789</v>
+        <v>0.01314510812817889</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5372540005486842</v>
+        <v>0.5372540005486839</v>
       </c>
       <c r="H20" t="n">
-        <v>5.502152533119214</v>
+        <v>5.502152533119211</v>
       </c>
       <c r="I20" t="n">
-        <v>20.71248485615317</v>
+        <v>20.71248485615316</v>
       </c>
       <c r="J20" t="n">
-        <v>45.59876172906893</v>
+        <v>45.5987617290689</v>
       </c>
       <c r="K20" t="n">
-        <v>68.34072357229475</v>
+        <v>68.34072357229471</v>
       </c>
       <c r="L20" t="n">
-        <v>84.78271069158656</v>
+        <v>84.7827106915865</v>
       </c>
       <c r="M20" t="n">
-        <v>94.33710152384423</v>
+        <v>94.33710152384415</v>
       </c>
       <c r="N20" t="n">
-        <v>95.86357445290318</v>
+        <v>95.86357445290312</v>
       </c>
       <c r="O20" t="n">
-        <v>90.52125498494719</v>
+        <v>90.52125498494713</v>
       </c>
       <c r="P20" t="n">
-        <v>77.25779684640153</v>
+        <v>77.25779684640149</v>
       </c>
       <c r="Q20" t="n">
-        <v>58.01738795175176</v>
+        <v>58.01738795175173</v>
       </c>
       <c r="R20" t="n">
-        <v>33.74828161196632</v>
+        <v>33.7482816119663</v>
       </c>
       <c r="S20" t="n">
-        <v>12.24267553750316</v>
+        <v>12.24267553750315</v>
       </c>
       <c r="T20" t="n">
-        <v>2.351829387401867</v>
+        <v>2.351829387401865</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04298032004389473</v>
+        <v>0.0429803200438947</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2874562324633835</v>
+        <v>0.2874562324633833</v>
       </c>
       <c r="H21" t="n">
-        <v>2.776222034580573</v>
+        <v>2.776222034580571</v>
       </c>
       <c r="I21" t="n">
-        <v>9.89706765279632</v>
+        <v>9.897067652796313</v>
       </c>
       <c r="J21" t="n">
-        <v>27.15831010304274</v>
+        <v>27.15831010304272</v>
       </c>
       <c r="K21" t="n">
-        <v>46.41787767808943</v>
+        <v>46.4178776780894</v>
       </c>
       <c r="L21" t="n">
-        <v>62.41456486008685</v>
+        <v>62.41456486008681</v>
       </c>
       <c r="M21" t="n">
-        <v>72.83485328688448</v>
+        <v>72.83485328688444</v>
       </c>
       <c r="N21" t="n">
-        <v>74.76257512651833</v>
+        <v>74.76257512651829</v>
       </c>
       <c r="O21" t="n">
-        <v>68.39315018614546</v>
+        <v>68.39315018614542</v>
       </c>
       <c r="P21" t="n">
-        <v>54.89153267101224</v>
+        <v>54.89153267101221</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.69353591936103</v>
+        <v>36.693535919361</v>
       </c>
       <c r="R21" t="n">
-        <v>17.8475018717178</v>
+        <v>17.84750187171779</v>
       </c>
       <c r="S21" t="n">
-        <v>5.339373440712404</v>
+        <v>5.339373440712402</v>
       </c>
       <c r="T21" t="n">
-        <v>1.158650340499339</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01891159424101208</v>
+        <v>0.01891159424101207</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2409936490166128</v>
+        <v>0.2409936490166127</v>
       </c>
       <c r="H22" t="n">
-        <v>2.142652624893159</v>
+        <v>2.142652624893158</v>
       </c>
       <c r="I22" t="n">
-        <v>7.247336281335959</v>
+        <v>7.247336281335954</v>
       </c>
       <c r="J22" t="n">
-        <v>17.03825098547453</v>
+        <v>17.03825098547452</v>
       </c>
       <c r="K22" t="n">
-        <v>27.99908031302101</v>
+        <v>27.99908031302099</v>
       </c>
       <c r="L22" t="n">
-        <v>35.82918305470624</v>
+        <v>35.82918305470622</v>
       </c>
       <c r="M22" t="n">
-        <v>37.77684990903141</v>
+        <v>37.77684990903138</v>
       </c>
       <c r="N22" t="n">
-        <v>36.87860085360587</v>
+        <v>36.87860085360585</v>
       </c>
       <c r="O22" t="n">
-        <v>34.06335686282089</v>
+        <v>34.06335686282087</v>
       </c>
       <c r="P22" t="n">
-        <v>29.14708642288196</v>
+        <v>29.14708642288194</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.17993182810928</v>
+        <v>20.17993182810927</v>
       </c>
       <c r="R22" t="n">
-        <v>10.83595080032879</v>
+        <v>10.83595080032878</v>
       </c>
       <c r="S22" t="n">
-        <v>4.199862046953151</v>
+        <v>4.199862046953148</v>
       </c>
       <c r="T22" t="n">
-        <v>1.029700136707346</v>
+        <v>1.029700136707345</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0131451081281789</v>
+        <v>0.01314510812817889</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5372540005486842</v>
+        <v>0.5372540005486839</v>
       </c>
       <c r="H23" t="n">
-        <v>5.502152533119214</v>
+        <v>5.502152533119211</v>
       </c>
       <c r="I23" t="n">
-        <v>20.71248485615317</v>
+        <v>20.71248485615316</v>
       </c>
       <c r="J23" t="n">
-        <v>45.59876172906893</v>
+        <v>45.5987617290689</v>
       </c>
       <c r="K23" t="n">
-        <v>68.34072357229475</v>
+        <v>68.34072357229471</v>
       </c>
       <c r="L23" t="n">
-        <v>84.78271069158656</v>
+        <v>84.7827106915865</v>
       </c>
       <c r="M23" t="n">
-        <v>94.33710152384423</v>
+        <v>94.33710152384415</v>
       </c>
       <c r="N23" t="n">
-        <v>95.86357445290318</v>
+        <v>95.86357445290312</v>
       </c>
       <c r="O23" t="n">
-        <v>90.52125498494719</v>
+        <v>90.52125498494713</v>
       </c>
       <c r="P23" t="n">
-        <v>77.25779684640153</v>
+        <v>77.25779684640149</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.01738795175176</v>
+        <v>58.01738795175173</v>
       </c>
       <c r="R23" t="n">
-        <v>33.74828161196632</v>
+        <v>33.7482816119663</v>
       </c>
       <c r="S23" t="n">
-        <v>12.24267553750316</v>
+        <v>12.24267553750315</v>
       </c>
       <c r="T23" t="n">
-        <v>2.351829387401867</v>
+        <v>2.351829387401865</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04298032004389473</v>
+        <v>0.0429803200438947</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2874562324633835</v>
+        <v>0.2874562324633833</v>
       </c>
       <c r="H24" t="n">
-        <v>2.776222034580573</v>
+        <v>2.776222034580571</v>
       </c>
       <c r="I24" t="n">
-        <v>9.89706765279632</v>
+        <v>9.897067652796313</v>
       </c>
       <c r="J24" t="n">
-        <v>27.15831010304274</v>
+        <v>27.15831010304272</v>
       </c>
       <c r="K24" t="n">
-        <v>46.41787767808943</v>
+        <v>46.4178776780894</v>
       </c>
       <c r="L24" t="n">
-        <v>62.41456486008685</v>
+        <v>62.41456486008681</v>
       </c>
       <c r="M24" t="n">
-        <v>72.83485328688448</v>
+        <v>72.83485328688444</v>
       </c>
       <c r="N24" t="n">
-        <v>74.76257512651833</v>
+        <v>74.76257512651829</v>
       </c>
       <c r="O24" t="n">
-        <v>68.39315018614546</v>
+        <v>68.39315018614542</v>
       </c>
       <c r="P24" t="n">
-        <v>54.89153267101224</v>
+        <v>54.89153267101221</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.69353591936103</v>
+        <v>36.693535919361</v>
       </c>
       <c r="R24" t="n">
-        <v>17.8475018717178</v>
+        <v>17.84750187171779</v>
       </c>
       <c r="S24" t="n">
-        <v>5.339373440712404</v>
+        <v>5.339373440712402</v>
       </c>
       <c r="T24" t="n">
-        <v>1.158650340499339</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01891159424101208</v>
+        <v>0.01891159424101207</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2409936490166128</v>
+        <v>0.2409936490166127</v>
       </c>
       <c r="H25" t="n">
-        <v>2.142652624893159</v>
+        <v>2.142652624893158</v>
       </c>
       <c r="I25" t="n">
-        <v>7.247336281335959</v>
+        <v>7.247336281335954</v>
       </c>
       <c r="J25" t="n">
-        <v>17.03825098547453</v>
+        <v>17.03825098547452</v>
       </c>
       <c r="K25" t="n">
-        <v>27.99908031302101</v>
+        <v>27.99908031302099</v>
       </c>
       <c r="L25" t="n">
-        <v>35.82918305470624</v>
+        <v>35.82918305470622</v>
       </c>
       <c r="M25" t="n">
-        <v>37.77684990903141</v>
+        <v>37.77684990903138</v>
       </c>
       <c r="N25" t="n">
-        <v>36.87860085360587</v>
+        <v>36.87860085360585</v>
       </c>
       <c r="O25" t="n">
-        <v>34.06335686282089</v>
+        <v>34.06335686282087</v>
       </c>
       <c r="P25" t="n">
-        <v>29.14708642288196</v>
+        <v>29.14708642288194</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.17993182810928</v>
+        <v>20.17993182810927</v>
       </c>
       <c r="R25" t="n">
-        <v>10.83595080032879</v>
+        <v>10.83595080032878</v>
       </c>
       <c r="S25" t="n">
-        <v>4.199862046953151</v>
+        <v>4.199862046953148</v>
       </c>
       <c r="T25" t="n">
-        <v>1.029700136707346</v>
+        <v>1.029700136707345</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0131451081281789</v>
+        <v>0.01314510812817889</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5372540005486842</v>
+        <v>0.5372540005486839</v>
       </c>
       <c r="H26" t="n">
-        <v>5.502152533119214</v>
+        <v>5.502152533119211</v>
       </c>
       <c r="I26" t="n">
-        <v>20.71248485615317</v>
+        <v>20.71248485615316</v>
       </c>
       <c r="J26" t="n">
-        <v>45.59876172906893</v>
+        <v>45.5987617290689</v>
       </c>
       <c r="K26" t="n">
-        <v>68.34072357229475</v>
+        <v>68.34072357229471</v>
       </c>
       <c r="L26" t="n">
-        <v>84.78271069158656</v>
+        <v>84.7827106915865</v>
       </c>
       <c r="M26" t="n">
-        <v>94.33710152384423</v>
+        <v>94.33710152384415</v>
       </c>
       <c r="N26" t="n">
-        <v>95.86357445290318</v>
+        <v>95.86357445290312</v>
       </c>
       <c r="O26" t="n">
-        <v>90.52125498494719</v>
+        <v>90.52125498494713</v>
       </c>
       <c r="P26" t="n">
-        <v>77.25779684640153</v>
+        <v>77.25779684640149</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.01738795175176</v>
+        <v>58.01738795175173</v>
       </c>
       <c r="R26" t="n">
-        <v>33.74828161196632</v>
+        <v>33.7482816119663</v>
       </c>
       <c r="S26" t="n">
-        <v>12.24267553750316</v>
+        <v>12.24267553750315</v>
       </c>
       <c r="T26" t="n">
-        <v>2.351829387401867</v>
+        <v>2.351829387401865</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04298032004389473</v>
+        <v>0.0429803200438947</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2874562324633835</v>
+        <v>0.2874562324633833</v>
       </c>
       <c r="H27" t="n">
-        <v>2.776222034580573</v>
+        <v>2.776222034580571</v>
       </c>
       <c r="I27" t="n">
-        <v>9.89706765279632</v>
+        <v>9.897067652796313</v>
       </c>
       <c r="J27" t="n">
-        <v>27.15831010304274</v>
+        <v>27.15831010304272</v>
       </c>
       <c r="K27" t="n">
-        <v>46.41787767808943</v>
+        <v>46.4178776780894</v>
       </c>
       <c r="L27" t="n">
-        <v>62.41456486008685</v>
+        <v>62.41456486008681</v>
       </c>
       <c r="M27" t="n">
-        <v>72.83485328688448</v>
+        <v>72.83485328688444</v>
       </c>
       <c r="N27" t="n">
-        <v>74.76257512651833</v>
+        <v>74.76257512651829</v>
       </c>
       <c r="O27" t="n">
-        <v>68.39315018614546</v>
+        <v>68.39315018614542</v>
       </c>
       <c r="P27" t="n">
-        <v>54.89153267101224</v>
+        <v>54.89153267101221</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.69353591936103</v>
+        <v>36.693535919361</v>
       </c>
       <c r="R27" t="n">
-        <v>17.8475018717178</v>
+        <v>17.84750187171779</v>
       </c>
       <c r="S27" t="n">
-        <v>5.339373440712404</v>
+        <v>5.339373440712402</v>
       </c>
       <c r="T27" t="n">
-        <v>1.158650340499339</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01891159424101208</v>
+        <v>0.01891159424101207</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2409936490166128</v>
+        <v>0.2409936490166127</v>
       </c>
       <c r="H28" t="n">
-        <v>2.142652624893159</v>
+        <v>2.142652624893158</v>
       </c>
       <c r="I28" t="n">
-        <v>7.247336281335959</v>
+        <v>7.247336281335954</v>
       </c>
       <c r="J28" t="n">
-        <v>17.03825098547453</v>
+        <v>17.03825098547452</v>
       </c>
       <c r="K28" t="n">
-        <v>27.99908031302101</v>
+        <v>27.99908031302099</v>
       </c>
       <c r="L28" t="n">
-        <v>35.82918305470624</v>
+        <v>35.82918305470622</v>
       </c>
       <c r="M28" t="n">
-        <v>37.77684990903141</v>
+        <v>37.77684990903138</v>
       </c>
       <c r="N28" t="n">
-        <v>36.87860085360587</v>
+        <v>36.87860085360585</v>
       </c>
       <c r="O28" t="n">
-        <v>34.06335686282089</v>
+        <v>34.06335686282087</v>
       </c>
       <c r="P28" t="n">
-        <v>29.14708642288196</v>
+        <v>29.14708642288194</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.17993182810928</v>
+        <v>20.17993182810927</v>
       </c>
       <c r="R28" t="n">
-        <v>10.83595080032879</v>
+        <v>10.83595080032878</v>
       </c>
       <c r="S28" t="n">
-        <v>4.199862046953151</v>
+        <v>4.199862046953148</v>
       </c>
       <c r="T28" t="n">
-        <v>1.029700136707346</v>
+        <v>1.029700136707345</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0131451081281789</v>
+        <v>0.01314510812817889</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5372540005486851</v>
+        <v>0.5372540005486839</v>
       </c>
       <c r="H29" t="n">
-        <v>5.502152533119223</v>
+        <v>5.502152533119211</v>
       </c>
       <c r="I29" t="n">
-        <v>20.7124848561532</v>
+        <v>20.71248485615316</v>
       </c>
       <c r="J29" t="n">
-        <v>45.59876172906901</v>
+        <v>45.5987617290689</v>
       </c>
       <c r="K29" t="n">
-        <v>68.34072357229486</v>
+        <v>68.34072357229471</v>
       </c>
       <c r="L29" t="n">
-        <v>84.7827106915867</v>
+        <v>84.7827106915865</v>
       </c>
       <c r="M29" t="n">
-        <v>94.33710152384438</v>
+        <v>94.33710152384415</v>
       </c>
       <c r="N29" t="n">
-        <v>95.86357445290334</v>
+        <v>95.86357445290312</v>
       </c>
       <c r="O29" t="n">
-        <v>90.52125498494735</v>
+        <v>90.52125498494713</v>
       </c>
       <c r="P29" t="n">
-        <v>77.25779684640167</v>
+        <v>77.25779684640149</v>
       </c>
       <c r="Q29" t="n">
-        <v>58.01738795175186</v>
+        <v>58.01738795175173</v>
       </c>
       <c r="R29" t="n">
-        <v>33.74828161196638</v>
+        <v>33.7482816119663</v>
       </c>
       <c r="S29" t="n">
-        <v>12.24267553750317</v>
+        <v>12.24267553750315</v>
       </c>
       <c r="T29" t="n">
-        <v>2.351829387401871</v>
+        <v>2.351829387401865</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04298032004389481</v>
+        <v>0.0429803200438947</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.287456232463384</v>
+        <v>0.2874562324633833</v>
       </c>
       <c r="H30" t="n">
-        <v>2.776222034580577</v>
+        <v>2.776222034580571</v>
       </c>
       <c r="I30" t="n">
-        <v>9.897067652796336</v>
+        <v>9.897067652796313</v>
       </c>
       <c r="J30" t="n">
-        <v>27.15831010304279</v>
+        <v>27.15831010304272</v>
       </c>
       <c r="K30" t="n">
-        <v>46.41787767808951</v>
+        <v>46.4178776780894</v>
       </c>
       <c r="L30" t="n">
-        <v>62.41456486008695</v>
+        <v>62.41456486008681</v>
       </c>
       <c r="M30" t="n">
-        <v>72.83485328688461</v>
+        <v>72.83485328688444</v>
       </c>
       <c r="N30" t="n">
-        <v>74.76257512651846</v>
+        <v>74.76257512651829</v>
       </c>
       <c r="O30" t="n">
-        <v>68.39315018614558</v>
+        <v>68.39315018614542</v>
       </c>
       <c r="P30" t="n">
-        <v>54.89153267101234</v>
+        <v>54.89153267101221</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.69353591936109</v>
+        <v>36.693535919361</v>
       </c>
       <c r="R30" t="n">
-        <v>17.84750187171783</v>
+        <v>17.84750187171779</v>
       </c>
       <c r="S30" t="n">
-        <v>5.339373440712414</v>
+        <v>5.339373440712402</v>
       </c>
       <c r="T30" t="n">
-        <v>1.158650340499341</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01891159424101211</v>
+        <v>0.01891159424101207</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2409936490166132</v>
+        <v>0.2409936490166127</v>
       </c>
       <c r="H31" t="n">
-        <v>2.142652624893163</v>
+        <v>2.142652624893158</v>
       </c>
       <c r="I31" t="n">
-        <v>7.247336281335971</v>
+        <v>7.247336281335954</v>
       </c>
       <c r="J31" t="n">
-        <v>17.03825098547455</v>
+        <v>17.03825098547452</v>
       </c>
       <c r="K31" t="n">
-        <v>27.99908031302106</v>
+        <v>27.99908031302099</v>
       </c>
       <c r="L31" t="n">
-        <v>35.82918305470631</v>
+        <v>35.82918305470622</v>
       </c>
       <c r="M31" t="n">
-        <v>37.77684990903147</v>
+        <v>37.77684990903138</v>
       </c>
       <c r="N31" t="n">
-        <v>36.87860085360594</v>
+        <v>36.87860085360585</v>
       </c>
       <c r="O31" t="n">
-        <v>34.06335686282095</v>
+        <v>34.06335686282087</v>
       </c>
       <c r="P31" t="n">
-        <v>29.14708642288201</v>
+        <v>29.14708642288194</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.17993182810931</v>
+        <v>20.17993182810927</v>
       </c>
       <c r="R31" t="n">
-        <v>10.83595080032881</v>
+        <v>10.83595080032878</v>
       </c>
       <c r="S31" t="n">
-        <v>4.199862046953158</v>
+        <v>4.199862046953148</v>
       </c>
       <c r="T31" t="n">
-        <v>1.029700136707347</v>
+        <v>1.029700136707345</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01314510812817892</v>
+        <v>0.01314510812817889</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5372540005486842</v>
+        <v>0.5372540005486839</v>
       </c>
       <c r="H32" t="n">
-        <v>5.502152533119214</v>
+        <v>5.502152533119211</v>
       </c>
       <c r="I32" t="n">
-        <v>20.71248485615317</v>
+        <v>20.71248485615316</v>
       </c>
       <c r="J32" t="n">
-        <v>45.59876172906893</v>
+        <v>45.5987617290689</v>
       </c>
       <c r="K32" t="n">
-        <v>68.34072357229475</v>
+        <v>68.34072357229471</v>
       </c>
       <c r="L32" t="n">
-        <v>84.78271069158656</v>
+        <v>84.7827106915865</v>
       </c>
       <c r="M32" t="n">
-        <v>94.33710152384423</v>
+        <v>94.33710152384415</v>
       </c>
       <c r="N32" t="n">
-        <v>95.86357445290318</v>
+        <v>95.86357445290312</v>
       </c>
       <c r="O32" t="n">
-        <v>90.52125498494719</v>
+        <v>90.52125498494713</v>
       </c>
       <c r="P32" t="n">
-        <v>77.25779684640153</v>
+        <v>77.25779684640149</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.01738795175176</v>
+        <v>58.01738795175173</v>
       </c>
       <c r="R32" t="n">
-        <v>33.74828161196632</v>
+        <v>33.7482816119663</v>
       </c>
       <c r="S32" t="n">
-        <v>12.24267553750316</v>
+        <v>12.24267553750315</v>
       </c>
       <c r="T32" t="n">
-        <v>2.351829387401867</v>
+        <v>2.351829387401865</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04298032004389473</v>
+        <v>0.0429803200438947</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2874562324633835</v>
+        <v>0.2874562324633833</v>
       </c>
       <c r="H33" t="n">
-        <v>2.776222034580573</v>
+        <v>2.776222034580571</v>
       </c>
       <c r="I33" t="n">
-        <v>9.89706765279632</v>
+        <v>9.897067652796313</v>
       </c>
       <c r="J33" t="n">
-        <v>27.15831010304274</v>
+        <v>27.15831010304272</v>
       </c>
       <c r="K33" t="n">
-        <v>46.41787767808943</v>
+        <v>46.4178776780894</v>
       </c>
       <c r="L33" t="n">
-        <v>62.41456486008685</v>
+        <v>62.41456486008681</v>
       </c>
       <c r="M33" t="n">
-        <v>72.83485328688448</v>
+        <v>72.83485328688444</v>
       </c>
       <c r="N33" t="n">
-        <v>74.76257512651833</v>
+        <v>74.76257512651829</v>
       </c>
       <c r="O33" t="n">
-        <v>68.39315018614546</v>
+        <v>68.39315018614542</v>
       </c>
       <c r="P33" t="n">
-        <v>54.89153267101224</v>
+        <v>54.89153267101221</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.69353591936103</v>
+        <v>36.693535919361</v>
       </c>
       <c r="R33" t="n">
-        <v>17.8475018717178</v>
+        <v>17.84750187171779</v>
       </c>
       <c r="S33" t="n">
-        <v>5.339373440712404</v>
+        <v>5.339373440712402</v>
       </c>
       <c r="T33" t="n">
-        <v>1.158650340499339</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01891159424101208</v>
+        <v>0.01891159424101207</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2409936490166128</v>
+        <v>0.2409936490166127</v>
       </c>
       <c r="H34" t="n">
-        <v>2.142652624893159</v>
+        <v>2.142652624893158</v>
       </c>
       <c r="I34" t="n">
-        <v>7.247336281335959</v>
+        <v>7.247336281335954</v>
       </c>
       <c r="J34" t="n">
-        <v>17.03825098547453</v>
+        <v>17.03825098547452</v>
       </c>
       <c r="K34" t="n">
-        <v>27.99908031302101</v>
+        <v>27.99908031302099</v>
       </c>
       <c r="L34" t="n">
-        <v>35.82918305470624</v>
+        <v>35.82918305470622</v>
       </c>
       <c r="M34" t="n">
-        <v>37.77684990903141</v>
+        <v>37.77684990903138</v>
       </c>
       <c r="N34" t="n">
-        <v>36.87860085360587</v>
+        <v>36.87860085360585</v>
       </c>
       <c r="O34" t="n">
-        <v>34.06335686282089</v>
+        <v>34.06335686282087</v>
       </c>
       <c r="P34" t="n">
-        <v>29.14708642288196</v>
+        <v>29.14708642288194</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.17993182810928</v>
+        <v>20.17993182810927</v>
       </c>
       <c r="R34" t="n">
-        <v>10.83595080032879</v>
+        <v>10.83595080032878</v>
       </c>
       <c r="S34" t="n">
-        <v>4.199862046953151</v>
+        <v>4.199862046953148</v>
       </c>
       <c r="T34" t="n">
-        <v>1.029700136707346</v>
+        <v>1.029700136707345</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0131451081281789</v>
+        <v>0.01314510812817889</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5372540005486842</v>
+        <v>0.5372540005486839</v>
       </c>
       <c r="H35" t="n">
-        <v>5.502152533119214</v>
+        <v>5.502152533119211</v>
       </c>
       <c r="I35" t="n">
-        <v>20.71248485615317</v>
+        <v>20.71248485615316</v>
       </c>
       <c r="J35" t="n">
-        <v>45.59876172906893</v>
+        <v>45.5987617290689</v>
       </c>
       <c r="K35" t="n">
-        <v>68.34072357229475</v>
+        <v>68.34072357229471</v>
       </c>
       <c r="L35" t="n">
-        <v>84.78271069158656</v>
+        <v>84.7827106915865</v>
       </c>
       <c r="M35" t="n">
-        <v>94.33710152384423</v>
+        <v>94.33710152384415</v>
       </c>
       <c r="N35" t="n">
-        <v>95.86357445290318</v>
+        <v>95.86357445290312</v>
       </c>
       <c r="O35" t="n">
-        <v>90.52125498494719</v>
+        <v>90.52125498494713</v>
       </c>
       <c r="P35" t="n">
-        <v>77.25779684640153</v>
+        <v>77.25779684640149</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.01738795175176</v>
+        <v>58.01738795175173</v>
       </c>
       <c r="R35" t="n">
-        <v>33.74828161196632</v>
+        <v>33.7482816119663</v>
       </c>
       <c r="S35" t="n">
-        <v>12.24267553750316</v>
+        <v>12.24267553750315</v>
       </c>
       <c r="T35" t="n">
-        <v>2.351829387401867</v>
+        <v>2.351829387401865</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04298032004389473</v>
+        <v>0.0429803200438947</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2874562324633835</v>
+        <v>0.2874562324633833</v>
       </c>
       <c r="H36" t="n">
-        <v>2.776222034580573</v>
+        <v>2.776222034580571</v>
       </c>
       <c r="I36" t="n">
-        <v>9.89706765279632</v>
+        <v>9.897067652796313</v>
       </c>
       <c r="J36" t="n">
-        <v>27.15831010304274</v>
+        <v>27.15831010304272</v>
       </c>
       <c r="K36" t="n">
-        <v>46.41787767808943</v>
+        <v>46.4178776780894</v>
       </c>
       <c r="L36" t="n">
-        <v>62.41456486008685</v>
+        <v>62.41456486008681</v>
       </c>
       <c r="M36" t="n">
-        <v>72.83485328688448</v>
+        <v>72.83485328688444</v>
       </c>
       <c r="N36" t="n">
-        <v>74.76257512651833</v>
+        <v>74.76257512651829</v>
       </c>
       <c r="O36" t="n">
-        <v>68.39315018614546</v>
+        <v>68.39315018614542</v>
       </c>
       <c r="P36" t="n">
-        <v>54.89153267101224</v>
+        <v>54.89153267101221</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.69353591936103</v>
+        <v>36.693535919361</v>
       </c>
       <c r="R36" t="n">
-        <v>17.8475018717178</v>
+        <v>17.84750187171779</v>
       </c>
       <c r="S36" t="n">
-        <v>5.339373440712404</v>
+        <v>5.339373440712402</v>
       </c>
       <c r="T36" t="n">
-        <v>1.158650340499339</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01891159424101208</v>
+        <v>0.01891159424101207</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2409936490166128</v>
+        <v>0.2409936490166127</v>
       </c>
       <c r="H37" t="n">
-        <v>2.142652624893159</v>
+        <v>2.142652624893158</v>
       </c>
       <c r="I37" t="n">
-        <v>7.247336281335959</v>
+        <v>7.247336281335954</v>
       </c>
       <c r="J37" t="n">
-        <v>17.03825098547453</v>
+        <v>17.03825098547452</v>
       </c>
       <c r="K37" t="n">
-        <v>27.99908031302101</v>
+        <v>27.99908031302099</v>
       </c>
       <c r="L37" t="n">
-        <v>35.82918305470624</v>
+        <v>35.82918305470622</v>
       </c>
       <c r="M37" t="n">
-        <v>37.77684990903141</v>
+        <v>37.77684990903138</v>
       </c>
       <c r="N37" t="n">
-        <v>36.87860085360587</v>
+        <v>36.87860085360585</v>
       </c>
       <c r="O37" t="n">
-        <v>34.06335686282089</v>
+        <v>34.06335686282087</v>
       </c>
       <c r="P37" t="n">
-        <v>29.14708642288196</v>
+        <v>29.14708642288194</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.17993182810928</v>
+        <v>20.17993182810927</v>
       </c>
       <c r="R37" t="n">
-        <v>10.83595080032879</v>
+        <v>10.83595080032878</v>
       </c>
       <c r="S37" t="n">
-        <v>4.199862046953151</v>
+        <v>4.199862046953148</v>
       </c>
       <c r="T37" t="n">
-        <v>1.029700136707346</v>
+        <v>1.029700136707345</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0131451081281789</v>
+        <v>0.01314510812817889</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5372540005486842</v>
+        <v>0.5372540005486839</v>
       </c>
       <c r="H38" t="n">
-        <v>5.502152533119214</v>
+        <v>5.502152533119211</v>
       </c>
       <c r="I38" t="n">
-        <v>20.71248485615317</v>
+        <v>20.71248485615316</v>
       </c>
       <c r="J38" t="n">
-        <v>45.59876172906893</v>
+        <v>45.5987617290689</v>
       </c>
       <c r="K38" t="n">
-        <v>68.34072357229475</v>
+        <v>68.34072357229471</v>
       </c>
       <c r="L38" t="n">
-        <v>84.78271069158656</v>
+        <v>84.7827106915865</v>
       </c>
       <c r="M38" t="n">
-        <v>94.33710152384423</v>
+        <v>94.33710152384415</v>
       </c>
       <c r="N38" t="n">
-        <v>95.86357445290318</v>
+        <v>95.86357445290312</v>
       </c>
       <c r="O38" t="n">
-        <v>90.52125498494719</v>
+        <v>90.52125498494713</v>
       </c>
       <c r="P38" t="n">
-        <v>77.25779684640153</v>
+        <v>77.25779684640149</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.01738795175176</v>
+        <v>58.01738795175173</v>
       </c>
       <c r="R38" t="n">
-        <v>33.74828161196632</v>
+        <v>33.7482816119663</v>
       </c>
       <c r="S38" t="n">
-        <v>12.24267553750316</v>
+        <v>12.24267553750315</v>
       </c>
       <c r="T38" t="n">
-        <v>2.351829387401867</v>
+        <v>2.351829387401865</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04298032004389473</v>
+        <v>0.0429803200438947</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2874562324633835</v>
+        <v>0.2874562324633833</v>
       </c>
       <c r="H39" t="n">
-        <v>2.776222034580573</v>
+        <v>2.776222034580571</v>
       </c>
       <c r="I39" t="n">
-        <v>9.89706765279632</v>
+        <v>9.897067652796313</v>
       </c>
       <c r="J39" t="n">
-        <v>27.15831010304274</v>
+        <v>27.15831010304272</v>
       </c>
       <c r="K39" t="n">
-        <v>46.41787767808943</v>
+        <v>46.4178776780894</v>
       </c>
       <c r="L39" t="n">
-        <v>62.41456486008685</v>
+        <v>62.41456486008681</v>
       </c>
       <c r="M39" t="n">
-        <v>72.83485328688448</v>
+        <v>72.83485328688444</v>
       </c>
       <c r="N39" t="n">
-        <v>74.76257512651833</v>
+        <v>74.76257512651829</v>
       </c>
       <c r="O39" t="n">
-        <v>68.39315018614546</v>
+        <v>68.39315018614542</v>
       </c>
       <c r="P39" t="n">
-        <v>54.89153267101224</v>
+        <v>54.89153267101221</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.69353591936103</v>
+        <v>36.693535919361</v>
       </c>
       <c r="R39" t="n">
-        <v>17.8475018717178</v>
+        <v>17.84750187171779</v>
       </c>
       <c r="S39" t="n">
-        <v>5.339373440712404</v>
+        <v>5.339373440712402</v>
       </c>
       <c r="T39" t="n">
-        <v>1.158650340499339</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01891159424101208</v>
+        <v>0.01891159424101207</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2409936490166128</v>
+        <v>0.2409936490166127</v>
       </c>
       <c r="H40" t="n">
-        <v>2.142652624893159</v>
+        <v>2.142652624893158</v>
       </c>
       <c r="I40" t="n">
-        <v>7.247336281335959</v>
+        <v>7.247336281335954</v>
       </c>
       <c r="J40" t="n">
-        <v>17.03825098547453</v>
+        <v>17.03825098547452</v>
       </c>
       <c r="K40" t="n">
-        <v>27.99908031302101</v>
+        <v>27.99908031302099</v>
       </c>
       <c r="L40" t="n">
-        <v>35.82918305470624</v>
+        <v>35.82918305470622</v>
       </c>
       <c r="M40" t="n">
-        <v>37.77684990903141</v>
+        <v>37.77684990903138</v>
       </c>
       <c r="N40" t="n">
-        <v>36.87860085360587</v>
+        <v>36.87860085360585</v>
       </c>
       <c r="O40" t="n">
-        <v>34.06335686282089</v>
+        <v>34.06335686282087</v>
       </c>
       <c r="P40" t="n">
-        <v>29.14708642288196</v>
+        <v>29.14708642288194</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.17993182810928</v>
+        <v>20.17993182810927</v>
       </c>
       <c r="R40" t="n">
-        <v>10.83595080032879</v>
+        <v>10.83595080032878</v>
       </c>
       <c r="S40" t="n">
-        <v>4.199862046953151</v>
+        <v>4.199862046953148</v>
       </c>
       <c r="T40" t="n">
-        <v>1.029700136707346</v>
+        <v>1.029700136707345</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0131451081281789</v>
+        <v>0.01314510812817889</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5372540005486842</v>
+        <v>0.5372540005486839</v>
       </c>
       <c r="H41" t="n">
-        <v>5.502152533119214</v>
+        <v>5.502152533119211</v>
       </c>
       <c r="I41" t="n">
-        <v>20.71248485615317</v>
+        <v>20.71248485615316</v>
       </c>
       <c r="J41" t="n">
-        <v>45.59876172906893</v>
+        <v>45.5987617290689</v>
       </c>
       <c r="K41" t="n">
-        <v>68.34072357229475</v>
+        <v>68.34072357229471</v>
       </c>
       <c r="L41" t="n">
-        <v>84.78271069158656</v>
+        <v>84.7827106915865</v>
       </c>
       <c r="M41" t="n">
-        <v>94.33710152384423</v>
+        <v>94.33710152384415</v>
       </c>
       <c r="N41" t="n">
-        <v>95.86357445290318</v>
+        <v>95.86357445290312</v>
       </c>
       <c r="O41" t="n">
-        <v>90.52125498494719</v>
+        <v>90.52125498494713</v>
       </c>
       <c r="P41" t="n">
-        <v>77.25779684640153</v>
+        <v>77.25779684640149</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.01738795175176</v>
+        <v>58.01738795175173</v>
       </c>
       <c r="R41" t="n">
-        <v>33.74828161196632</v>
+        <v>33.7482816119663</v>
       </c>
       <c r="S41" t="n">
-        <v>12.24267553750316</v>
+        <v>12.24267553750315</v>
       </c>
       <c r="T41" t="n">
-        <v>2.351829387401867</v>
+        <v>2.351829387401865</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04298032004389473</v>
+        <v>0.0429803200438947</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2874562324633835</v>
+        <v>0.2874562324633833</v>
       </c>
       <c r="H42" t="n">
-        <v>2.776222034580573</v>
+        <v>2.776222034580571</v>
       </c>
       <c r="I42" t="n">
-        <v>9.89706765279632</v>
+        <v>9.897067652796313</v>
       </c>
       <c r="J42" t="n">
-        <v>27.15831010304274</v>
+        <v>27.15831010304272</v>
       </c>
       <c r="K42" t="n">
-        <v>46.41787767808943</v>
+        <v>46.4178776780894</v>
       </c>
       <c r="L42" t="n">
-        <v>62.41456486008685</v>
+        <v>62.41456486008681</v>
       </c>
       <c r="M42" t="n">
-        <v>72.83485328688448</v>
+        <v>72.83485328688444</v>
       </c>
       <c r="N42" t="n">
-        <v>74.76257512651833</v>
+        <v>74.76257512651829</v>
       </c>
       <c r="O42" t="n">
-        <v>68.39315018614546</v>
+        <v>68.39315018614542</v>
       </c>
       <c r="P42" t="n">
-        <v>54.89153267101224</v>
+        <v>54.89153267101221</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.69353591936103</v>
+        <v>36.693535919361</v>
       </c>
       <c r="R42" t="n">
-        <v>17.8475018717178</v>
+        <v>17.84750187171779</v>
       </c>
       <c r="S42" t="n">
-        <v>5.339373440712404</v>
+        <v>5.339373440712402</v>
       </c>
       <c r="T42" t="n">
-        <v>1.158650340499339</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01891159424101208</v>
+        <v>0.01891159424101207</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2409936490166128</v>
+        <v>0.2409936490166127</v>
       </c>
       <c r="H43" t="n">
-        <v>2.142652624893159</v>
+        <v>2.142652624893158</v>
       </c>
       <c r="I43" t="n">
-        <v>7.247336281335959</v>
+        <v>7.247336281335954</v>
       </c>
       <c r="J43" t="n">
-        <v>17.03825098547453</v>
+        <v>17.03825098547452</v>
       </c>
       <c r="K43" t="n">
-        <v>27.99908031302101</v>
+        <v>27.99908031302099</v>
       </c>
       <c r="L43" t="n">
-        <v>35.82918305470624</v>
+        <v>35.82918305470622</v>
       </c>
       <c r="M43" t="n">
-        <v>37.77684990903141</v>
+        <v>37.77684990903138</v>
       </c>
       <c r="N43" t="n">
-        <v>36.87860085360587</v>
+        <v>36.87860085360585</v>
       </c>
       <c r="O43" t="n">
-        <v>34.06335686282089</v>
+        <v>34.06335686282087</v>
       </c>
       <c r="P43" t="n">
-        <v>29.14708642288196</v>
+        <v>29.14708642288194</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.17993182810928</v>
+        <v>20.17993182810927</v>
       </c>
       <c r="R43" t="n">
-        <v>10.83595080032879</v>
+        <v>10.83595080032878</v>
       </c>
       <c r="S43" t="n">
-        <v>4.199862046953151</v>
+        <v>4.199862046953148</v>
       </c>
       <c r="T43" t="n">
-        <v>1.029700136707346</v>
+        <v>1.029700136707345</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0131451081281789</v>
+        <v>0.01314510812817889</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5372540005486842</v>
+        <v>0.5372540005486839</v>
       </c>
       <c r="H44" t="n">
-        <v>5.502152533119214</v>
+        <v>5.502152533119211</v>
       </c>
       <c r="I44" t="n">
-        <v>20.71248485615317</v>
+        <v>20.71248485615316</v>
       </c>
       <c r="J44" t="n">
-        <v>45.59876172906893</v>
+        <v>45.5987617290689</v>
       </c>
       <c r="K44" t="n">
-        <v>68.34072357229475</v>
+        <v>68.34072357229471</v>
       </c>
       <c r="L44" t="n">
-        <v>84.78271069158656</v>
+        <v>84.7827106915865</v>
       </c>
       <c r="M44" t="n">
-        <v>94.33710152384423</v>
+        <v>94.33710152384415</v>
       </c>
       <c r="N44" t="n">
-        <v>95.86357445290318</v>
+        <v>95.86357445290312</v>
       </c>
       <c r="O44" t="n">
-        <v>90.52125498494719</v>
+        <v>90.52125498494713</v>
       </c>
       <c r="P44" t="n">
-        <v>77.25779684640153</v>
+        <v>77.25779684640149</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.01738795175176</v>
+        <v>58.01738795175173</v>
       </c>
       <c r="R44" t="n">
-        <v>33.74828161196632</v>
+        <v>33.7482816119663</v>
       </c>
       <c r="S44" t="n">
-        <v>12.24267553750316</v>
+        <v>12.24267553750315</v>
       </c>
       <c r="T44" t="n">
-        <v>2.351829387401867</v>
+        <v>2.351829387401865</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04298032004389473</v>
+        <v>0.0429803200438947</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2874562324633835</v>
+        <v>0.2874562324633833</v>
       </c>
       <c r="H45" t="n">
-        <v>2.776222034580573</v>
+        <v>2.776222034580571</v>
       </c>
       <c r="I45" t="n">
-        <v>9.89706765279632</v>
+        <v>9.897067652796313</v>
       </c>
       <c r="J45" t="n">
-        <v>27.15831010304274</v>
+        <v>27.15831010304272</v>
       </c>
       <c r="K45" t="n">
-        <v>46.41787767808943</v>
+        <v>46.4178776780894</v>
       </c>
       <c r="L45" t="n">
-        <v>62.41456486008685</v>
+        <v>62.41456486008681</v>
       </c>
       <c r="M45" t="n">
-        <v>72.83485328688448</v>
+        <v>72.83485328688444</v>
       </c>
       <c r="N45" t="n">
-        <v>74.76257512651833</v>
+        <v>74.76257512651829</v>
       </c>
       <c r="O45" t="n">
-        <v>68.39315018614546</v>
+        <v>68.39315018614542</v>
       </c>
       <c r="P45" t="n">
-        <v>54.89153267101224</v>
+        <v>54.89153267101221</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.69353591936103</v>
+        <v>36.693535919361</v>
       </c>
       <c r="R45" t="n">
-        <v>17.8475018717178</v>
+        <v>17.84750187171779</v>
       </c>
       <c r="S45" t="n">
-        <v>5.339373440712404</v>
+        <v>5.339373440712402</v>
       </c>
       <c r="T45" t="n">
-        <v>1.158650340499339</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01891159424101208</v>
+        <v>0.01891159424101207</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2409936490166128</v>
+        <v>0.2409936490166127</v>
       </c>
       <c r="H46" t="n">
-        <v>2.142652624893159</v>
+        <v>2.142652624893158</v>
       </c>
       <c r="I46" t="n">
-        <v>7.247336281335959</v>
+        <v>7.247336281335954</v>
       </c>
       <c r="J46" t="n">
-        <v>17.03825098547453</v>
+        <v>17.03825098547452</v>
       </c>
       <c r="K46" t="n">
-        <v>27.99908031302101</v>
+        <v>27.99908031302099</v>
       </c>
       <c r="L46" t="n">
-        <v>35.82918305470624</v>
+        <v>35.82918305470622</v>
       </c>
       <c r="M46" t="n">
-        <v>37.77684990903141</v>
+        <v>37.77684990903138</v>
       </c>
       <c r="N46" t="n">
-        <v>36.87860085360587</v>
+        <v>36.87860085360585</v>
       </c>
       <c r="O46" t="n">
-        <v>34.06335686282089</v>
+        <v>34.06335686282087</v>
       </c>
       <c r="P46" t="n">
-        <v>29.14708642288196</v>
+        <v>29.14708642288194</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.17993182810928</v>
+        <v>20.17993182810927</v>
       </c>
       <c r="R46" t="n">
-        <v>10.83595080032879</v>
+        <v>10.83595080032878</v>
       </c>
       <c r="S46" t="n">
-        <v>4.199862046953151</v>
+        <v>4.199862046953148</v>
       </c>
       <c r="T46" t="n">
-        <v>1.029700136707346</v>
+        <v>1.029700136707345</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0131451081281789</v>
+        <v>0.01314510812817889</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>9.605247316954339</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
-        <v>9.605247316954339</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="P8" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>10.00967878293136</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>10.00967878293136</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="M10" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="N10" t="n">
         <v>9.605247316954337</v>
       </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="P10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>118.3245640248322</v>
       </c>
       <c r="K11" t="n">
-        <v>310.9067559407622</v>
+        <v>310.9067559407621</v>
       </c>
       <c r="L11" t="n">
-        <v>436.1820774440575</v>
+        <v>436.1820774440574</v>
       </c>
       <c r="M11" t="n">
-        <v>491.5483805673674</v>
+        <v>491.5483805673673</v>
       </c>
       <c r="N11" t="n">
-        <v>289.3122078637991</v>
+        <v>478.0164620162524</v>
       </c>
       <c r="O11" t="n">
-        <v>398.6066938463956</v>
+        <v>363.3059424805803</v>
       </c>
       <c r="P11" t="n">
         <v>307.7193084181724</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.4035027866376</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>88.02108437890753</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>278.226516627775</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>431.9315801834359</v>
       </c>
       <c r="M12" t="n">
         <v>562.7675336002445</v>
       </c>
       <c r="N12" t="n">
-        <v>556.3358952404546</v>
+        <v>591.1925207054295</v>
       </c>
       <c r="O12" t="n">
         <v>464.5547166347827</v>
       </c>
       <c r="P12" t="n">
-        <v>360.0389258787873</v>
+        <v>360.0389258787872</v>
       </c>
       <c r="Q12" t="n">
-        <v>196.0588185310723</v>
+        <v>95.51821388934449</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.1381176770702</v>
+        <v>46.13811767707021</v>
       </c>
       <c r="K13" t="n">
         <v>150.499237189074</v>
@@ -35586,7 +35586,7 @@
         <v>181.3081483327676</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.58449678682609</v>
+        <v>70.58449678682612</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>118.3245640248322</v>
       </c>
       <c r="K14" t="n">
-        <v>310.9067559407622</v>
+        <v>310.9067559407621</v>
       </c>
       <c r="L14" t="n">
-        <v>436.1820774440575</v>
+        <v>436.1820774440574</v>
       </c>
       <c r="M14" t="n">
-        <v>491.5483805673674</v>
+        <v>491.5483805673673</v>
       </c>
       <c r="N14" t="n">
         <v>478.0164620162524</v>
       </c>
       <c r="O14" t="n">
-        <v>398.6066938463956</v>
+        <v>363.3059424805803</v>
       </c>
       <c r="P14" t="n">
         <v>307.7193084181724</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.02381265901691</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>88.02108437890753</v>
+        <v>88.02108437890752</v>
       </c>
       <c r="K15" t="n">
-        <v>278.226516627775</v>
+        <v>278.2265166277749</v>
       </c>
       <c r="L15" t="n">
-        <v>431.931580183436</v>
+        <v>431.9315801834359</v>
       </c>
       <c r="M15" t="n">
         <v>562.7675336002445</v>
       </c>
       <c r="N15" t="n">
-        <v>320.4631335880898</v>
+        <v>124.4043150570174</v>
       </c>
       <c r="O15" t="n">
         <v>464.5547166347827</v>
       </c>
       <c r="P15" t="n">
-        <v>360.0389258787873</v>
+        <v>360.0389258787872</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>196.0588185310723</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.1381176770702</v>
+        <v>46.13811767707021</v>
       </c>
       <c r="K16" t="n">
         <v>150.499237189074</v>
@@ -35823,7 +35823,7 @@
         <v>181.3081483327676</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.58449678682609</v>
+        <v>70.58449678682612</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>83.02381265901688</v>
       </c>
       <c r="K17" t="n">
-        <v>310.9067559407622</v>
+        <v>310.9067559407621</v>
       </c>
       <c r="L17" t="n">
-        <v>436.1820774440575</v>
+        <v>436.1820774440574</v>
       </c>
       <c r="M17" t="n">
-        <v>491.5483805673674</v>
+        <v>491.5483805673673</v>
       </c>
       <c r="N17" t="n">
         <v>478.0164620162524</v>
@@ -35902,7 +35902,7 @@
         <v>307.7193084181724</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.02381265901691</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>88.02108437890753</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>278.226516627775</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>431.931580183436</v>
+        <v>431.9315801834359</v>
       </c>
       <c r="M18" t="n">
-        <v>95.9793279518324</v>
+        <v>562.7675336002445</v>
       </c>
       <c r="N18" t="n">
         <v>591.1925207054295</v>
@@ -35978,10 +35978,10 @@
         <v>464.5547166347827</v>
       </c>
       <c r="P18" t="n">
-        <v>360.0389258787873</v>
+        <v>360.0389258787872</v>
       </c>
       <c r="Q18" t="n">
-        <v>196.0588185310723</v>
+        <v>95.51821388934312</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>61.94270429750931</v>
+        <v>61.94270429750929</v>
       </c>
       <c r="L19" t="n">
         <v>137.4524955802209</v>
@@ -36057,7 +36057,7 @@
         <v>133.5215856463458</v>
       </c>
       <c r="P19" t="n">
-        <v>92.75161544120297</v>
+        <v>92.75161544120294</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>118.3245640248322</v>
       </c>
       <c r="K20" t="n">
-        <v>310.9067559407622</v>
+        <v>310.9067559407621</v>
       </c>
       <c r="L20" t="n">
-        <v>436.1820774440575</v>
+        <v>436.1820774440574</v>
       </c>
       <c r="M20" t="n">
-        <v>302.8441264149141</v>
+        <v>491.5483805673673</v>
       </c>
       <c r="N20" t="n">
         <v>478.0164620162524</v>
@@ -36136,10 +36136,10 @@
         <v>398.6066938463956</v>
       </c>
       <c r="P20" t="n">
-        <v>307.7193084181724</v>
+        <v>272.4185570523571</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.4035027866376</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>88.02108437890753</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>278.226516627775</v>
+        <v>278.2265166277749</v>
       </c>
       <c r="L21" t="n">
-        <v>431.931580183436</v>
+        <v>431.9315801834359</v>
       </c>
       <c r="M21" t="n">
         <v>562.7675336002445</v>
       </c>
       <c r="N21" t="n">
-        <v>124.4043150570187</v>
+        <v>591.1925207054295</v>
       </c>
       <c r="O21" t="n">
         <v>464.5547166347827</v>
       </c>
       <c r="P21" t="n">
-        <v>360.0389258787873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>196.0588185310723</v>
+        <v>177.3306231403552</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>61.94270429750931</v>
+        <v>61.94270429750929</v>
       </c>
       <c r="L22" t="n">
         <v>137.4524955802209</v>
@@ -36294,7 +36294,7 @@
         <v>133.5215856463458</v>
       </c>
       <c r="P22" t="n">
-        <v>92.75161544120297</v>
+        <v>92.75161544120294</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>118.3245640248322</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>310.9067559407622</v>
+        <v>310.9067559407621</v>
       </c>
       <c r="L23" t="n">
-        <v>436.1820774440575</v>
+        <v>436.1820774440574</v>
       </c>
       <c r="M23" t="n">
-        <v>491.5483805673674</v>
+        <v>491.5483805673673</v>
       </c>
       <c r="N23" t="n">
         <v>478.0164620162524</v>
@@ -36373,10 +36373,10 @@
         <v>398.6066938463956</v>
       </c>
       <c r="P23" t="n">
-        <v>119.0150542657184</v>
+        <v>307.7193084181724</v>
       </c>
       <c r="Q23" t="n">
-        <v>153.4035027866376</v>
+        <v>83.02381265901644</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>278.226516627775</v>
+        <v>278.2265166277749</v>
       </c>
       <c r="L24" t="n">
-        <v>431.931580183436</v>
+        <v>431.9315801834359</v>
       </c>
       <c r="M24" t="n">
         <v>562.7675336002445</v>
@@ -36449,13 +36449,13 @@
         <v>591.1925207054295</v>
       </c>
       <c r="O24" t="n">
-        <v>85.78759536527801</v>
+        <v>464.5547166347827</v>
       </c>
       <c r="P24" t="n">
-        <v>360.0389258787873</v>
+        <v>177.3306231403552</v>
       </c>
       <c r="Q24" t="n">
-        <v>196.0588185310723</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>61.94270429750931</v>
+        <v>61.94270429750929</v>
       </c>
       <c r="L25" t="n">
         <v>137.4524955802209</v>
@@ -36531,7 +36531,7 @@
         <v>133.5215856463458</v>
       </c>
       <c r="P25" t="n">
-        <v>92.75161544120297</v>
+        <v>92.75161544120294</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>220.8546076702493</v>
+        <v>119.7107286420439</v>
       </c>
       <c r="K26" t="n">
         <v>413.4367995861792</v>
       </c>
       <c r="L26" t="n">
-        <v>437.568242061269</v>
+        <v>538.7121210894745</v>
       </c>
       <c r="M26" t="n">
         <v>594.0784242127844</v>
       </c>
       <c r="N26" t="n">
-        <v>580.5465056616695</v>
+        <v>580.5465056616694</v>
       </c>
       <c r="O26" t="n">
-        <v>501.1367374918127</v>
+        <v>501.1367374918126</v>
       </c>
       <c r="P26" t="n">
         <v>410.2493520635895</v>
       </c>
       <c r="Q26" t="n">
-        <v>255.9335464320547</v>
+        <v>255.9335464320546</v>
       </c>
       <c r="R26" t="n">
-        <v>46.54642161827817</v>
+        <v>46.54642161827815</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>278.226516627775</v>
+        <v>95.51821388934337</v>
       </c>
       <c r="L27" t="n">
-        <v>431.931580183436</v>
+        <v>431.9315801834359</v>
       </c>
       <c r="M27" t="n">
         <v>562.7675336002445</v>
       </c>
       <c r="N27" t="n">
-        <v>408.4842179669972</v>
+        <v>591.1925207054295</v>
       </c>
       <c r="O27" t="n">
         <v>464.5547166347827</v>
       </c>
       <c r="P27" t="n">
-        <v>360.0389258787873</v>
+        <v>360.0389258787872</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.11162843092256</v>
+        <v>60.11162843092255</v>
       </c>
       <c r="K28" t="n">
-        <v>164.4727479429264</v>
+        <v>164.4727479429263</v>
       </c>
       <c r="L28" t="n">
         <v>239.9825392256379</v>
@@ -36762,10 +36762,10 @@
         <v>259.4922532792987</v>
       </c>
       <c r="N28" t="n">
-        <v>259.0271715188213</v>
+        <v>259.0271715188212</v>
       </c>
       <c r="O28" t="n">
-        <v>236.0516292917629</v>
+        <v>236.0516292917628</v>
       </c>
       <c r="P28" t="n">
         <v>195.28165908662</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>220.8546076702493</v>
+        <v>220.8546076702492</v>
       </c>
       <c r="K29" t="n">
-        <v>413.4367995861793</v>
+        <v>312.2929205579747</v>
       </c>
       <c r="L29" t="n">
-        <v>437.5682420612675</v>
+        <v>538.7121210894745</v>
       </c>
       <c r="M29" t="n">
-        <v>594.0784242127846</v>
+        <v>594.0784242127844</v>
       </c>
       <c r="N29" t="n">
-        <v>580.5465056616696</v>
+        <v>580.5465056616694</v>
       </c>
       <c r="O29" t="n">
-        <v>501.1367374918128</v>
+        <v>501.1367374918126</v>
       </c>
       <c r="P29" t="n">
-        <v>410.2493520635896</v>
+        <v>410.2493520635895</v>
       </c>
       <c r="Q29" t="n">
-        <v>255.9335464320548</v>
+        <v>255.9335464320546</v>
       </c>
       <c r="R29" t="n">
-        <v>46.54642161827823</v>
+        <v>46.54642161827815</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>278.226516627775</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>431.9315801834361</v>
+        <v>431.9315801834359</v>
       </c>
       <c r="M30" t="n">
-        <v>562.7675336002446</v>
+        <v>562.7675336002445</v>
       </c>
       <c r="N30" t="n">
-        <v>408.4842179669965</v>
+        <v>591.1925207054295</v>
       </c>
       <c r="O30" t="n">
-        <v>464.5547166347828</v>
+        <v>464.5547166347827</v>
       </c>
       <c r="P30" t="n">
-        <v>360.0389258787873</v>
+        <v>360.0389258787872</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>95.51821388934312</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.11162843092259</v>
+        <v>60.11162843092255</v>
       </c>
       <c r="K31" t="n">
-        <v>164.4727479429264</v>
+        <v>164.4727479429263</v>
       </c>
       <c r="L31" t="n">
-        <v>239.982539225638</v>
+        <v>239.9825392256379</v>
       </c>
       <c r="M31" t="n">
         <v>259.4922532792987</v>
       </c>
       <c r="N31" t="n">
-        <v>259.0271715188213</v>
+        <v>259.0271715188212</v>
       </c>
       <c r="O31" t="n">
-        <v>236.0516292917629</v>
+        <v>236.0516292917628</v>
       </c>
       <c r="P31" t="n">
         <v>195.28165908662</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.5580075406785</v>
+        <v>84.55800754067846</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>223.4443117649693</v>
+        <v>223.4443117649692</v>
       </c>
       <c r="K32" t="n">
         <v>416.0265036808992</v>
       </c>
       <c r="L32" t="n">
-        <v>541.3018251841946</v>
+        <v>541.3018251841945</v>
       </c>
       <c r="M32" t="n">
-        <v>596.6681283075045</v>
+        <v>596.6681283075044</v>
       </c>
       <c r="N32" t="n">
-        <v>583.1362097563895</v>
+        <v>583.1362097563893</v>
       </c>
       <c r="O32" t="n">
-        <v>398.6066938463956</v>
+        <v>444.7606897802365</v>
       </c>
       <c r="P32" t="n">
-        <v>353.8733043520115</v>
+        <v>307.7193084181724</v>
       </c>
       <c r="Q32" t="n">
-        <v>258.5232505267747</v>
+        <v>258.5232505267746</v>
       </c>
       <c r="R32" t="n">
-        <v>49.13612571299821</v>
+        <v>49.13612571299813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>88.02108437890752</v>
       </c>
       <c r="K33" t="n">
-        <v>278.226516627775</v>
+        <v>278.2265166277749</v>
       </c>
       <c r="L33" t="n">
-        <v>431.931580183436</v>
+        <v>431.9315801834359</v>
       </c>
       <c r="M33" t="n">
         <v>562.7675336002445</v>
       </c>
       <c r="N33" t="n">
-        <v>408.4842179669977</v>
+        <v>124.4043150570178</v>
       </c>
       <c r="O33" t="n">
         <v>464.5547166347827</v>
       </c>
       <c r="P33" t="n">
-        <v>360.0389258787873</v>
+        <v>360.0389258787872</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>196.0588185310723</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62.7013325256426</v>
+        <v>62.70133252564253</v>
       </c>
       <c r="K34" t="n">
-        <v>167.0624520376464</v>
+        <v>167.0624520376463</v>
       </c>
       <c r="L34" t="n">
-        <v>242.572243320358</v>
+        <v>242.5722433203579</v>
       </c>
       <c r="M34" t="n">
         <v>262.0819573740187</v>
       </c>
       <c r="N34" t="n">
-        <v>198.6226736123154</v>
+        <v>261.6168756135412</v>
       </c>
       <c r="O34" t="n">
-        <v>238.6413333864829</v>
+        <v>238.6413333864828</v>
       </c>
       <c r="P34" t="n">
-        <v>197.87136318134</v>
+        <v>134.8771611801156</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.14771163539851</v>
+        <v>87.14771163539842</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>118.3245640248322</v>
       </c>
       <c r="K35" t="n">
-        <v>310.9067559407622</v>
+        <v>310.9067559407621</v>
       </c>
       <c r="L35" t="n">
-        <v>436.1820774440575</v>
+        <v>436.1820774440574</v>
       </c>
       <c r="M35" t="n">
-        <v>491.5483805673674</v>
+        <v>491.5483805673673</v>
       </c>
       <c r="N35" t="n">
         <v>478.0164620162524</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>259.4983212370578</v>
+        <v>95.51821388934303</v>
       </c>
       <c r="L36" t="n">
-        <v>431.931580183436</v>
+        <v>431.9315801834359</v>
       </c>
       <c r="M36" t="n">
         <v>562.7675336002445</v>
@@ -37400,10 +37400,10 @@
         <v>464.5547166347827</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>360.0389258787872</v>
       </c>
       <c r="Q36" t="n">
-        <v>196.0588185310723</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>61.94270429750931</v>
+        <v>61.94270429750929</v>
       </c>
       <c r="L37" t="n">
         <v>137.4524955802209</v>
@@ -37479,7 +37479,7 @@
         <v>133.5215856463458</v>
       </c>
       <c r="P37" t="n">
-        <v>92.75161544120297</v>
+        <v>92.75161544120294</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>118.3245640248322</v>
       </c>
       <c r="K38" t="n">
-        <v>310.9067559407622</v>
+        <v>310.9067559407621</v>
       </c>
       <c r="L38" t="n">
-        <v>436.1820774440575</v>
+        <v>436.1820774440574</v>
       </c>
       <c r="M38" t="n">
-        <v>491.5483805673674</v>
+        <v>491.5483805673673</v>
       </c>
       <c r="N38" t="n">
         <v>478.0164620162524</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>278.226516627775</v>
+        <v>278.2265166277749</v>
       </c>
       <c r="L39" t="n">
-        <v>431.931580183436</v>
+        <v>431.9315801834359</v>
       </c>
       <c r="M39" t="n">
         <v>562.7675336002445</v>
       </c>
       <c r="N39" t="n">
-        <v>591.1925207054295</v>
+        <v>212.425399435925</v>
       </c>
       <c r="O39" t="n">
         <v>464.5547166347827</v>
       </c>
       <c r="P39" t="n">
-        <v>177.3306231403552</v>
+        <v>360.0389258787872</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>196.0588185310723</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>61.94270429750931</v>
+        <v>61.94270429750929</v>
       </c>
       <c r="L40" t="n">
         <v>137.4524955802209</v>
@@ -37716,7 +37716,7 @@
         <v>133.5215856463458</v>
       </c>
       <c r="P40" t="n">
-        <v>92.75161544120297</v>
+        <v>92.75161544120294</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,16 +37780,16 @@
         <v>118.3245640248322</v>
       </c>
       <c r="K41" t="n">
-        <v>310.9067559407622</v>
+        <v>310.9067559407621</v>
       </c>
       <c r="L41" t="n">
-        <v>436.1820774440575</v>
+        <v>436.1820774440574</v>
       </c>
       <c r="M41" t="n">
-        <v>491.5483805673674</v>
+        <v>491.5483805673673</v>
       </c>
       <c r="N41" t="n">
-        <v>478.0164620162524</v>
+        <v>478.0164620162519</v>
       </c>
       <c r="O41" t="n">
         <v>398.6066938463956</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>95.51821388934297</v>
+        <v>278.2265166277749</v>
       </c>
       <c r="L42" t="n">
-        <v>431.931580183436</v>
+        <v>431.9315801834359</v>
       </c>
       <c r="M42" t="n">
         <v>562.7675336002445</v>
       </c>
       <c r="N42" t="n">
-        <v>591.1925207054295</v>
+        <v>408.4842179669974</v>
       </c>
       <c r="O42" t="n">
         <v>464.5547166347827</v>
       </c>
       <c r="P42" t="n">
-        <v>360.0389258787873</v>
+        <v>360.0389258787872</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>61.94270429750931</v>
+        <v>61.94270429750929</v>
       </c>
       <c r="L43" t="n">
         <v>137.4524955802209</v>
@@ -37953,7 +37953,7 @@
         <v>133.5215856463458</v>
       </c>
       <c r="P43" t="n">
-        <v>92.75161544120297</v>
+        <v>92.75161544120294</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>118.3245640248322</v>
       </c>
       <c r="K44" t="n">
-        <v>310.9067559407622</v>
+        <v>310.9067559407621</v>
       </c>
       <c r="L44" t="n">
-        <v>436.1820774440573</v>
+        <v>436.1820774440574</v>
       </c>
       <c r="M44" t="n">
-        <v>491.5483805673674</v>
+        <v>491.5483805673673</v>
       </c>
       <c r="N44" t="n">
         <v>478.0164620162524</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>278.226516627775</v>
+        <v>278.2265166277749</v>
       </c>
       <c r="L45" t="n">
-        <v>431.931580183436</v>
+        <v>431.9315801834359</v>
       </c>
       <c r="M45" t="n">
-        <v>562.7675336002445</v>
+        <v>184.00041233074</v>
       </c>
       <c r="N45" t="n">
         <v>591.1925207054295</v>
@@ -38111,10 +38111,10 @@
         <v>464.5547166347827</v>
       </c>
       <c r="P45" t="n">
-        <v>177.3306231403552</v>
+        <v>360.0389258787872</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>196.0588185310723</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>61.94270429750931</v>
+        <v>61.94270429750929</v>
       </c>
       <c r="L46" t="n">
         <v>137.4524955802209</v>
@@ -38190,7 +38190,7 @@
         <v>133.5215856463458</v>
       </c>
       <c r="P46" t="n">
-        <v>92.75161544120297</v>
+        <v>92.75161544120294</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
